--- a/author_title_input.xlsx
+++ b/author_title_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24761\PycharmProjects\pythonProject7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D35B2BC-C251-48F1-A2D5-4CC612C80F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DF54D0-154F-4D85-888C-2D44C085D947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{D324918D-E3A1-4CCE-B36C-4E3A70C9A833}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12120" xr2:uid="{D324918D-E3A1-4CCE-B36C-4E3A70C9A833}"/>
   </bookViews>
   <sheets>
     <sheet name="author_title_input" sheetId="1" r:id="rId1"/>
@@ -20,183 +20,602 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
-  <si>
-    <t>Zhou Teng, 海南大学</t>
-  </si>
-  <si>
-    <t>Qin Jing, 香港理工大学</t>
-  </si>
-  <si>
-    <t>Cai Lingru,</t>
-  </si>
-  <si>
-    <t>Yu Yidan, 深圳大学</t>
-  </si>
-  <si>
-    <t>Xu Xuemiao, 华南大学科技</t>
-  </si>
-  <si>
-    <t>Zhang Zhanchang, 汕头大学</t>
-  </si>
-  <si>
-    <t>Yang Junjie, 广东工业大学</t>
-  </si>
-  <si>
-    <t>Cai Weihong, 汕头大学</t>
-  </si>
-  <si>
-    <t>Song Youyi, 中国药科大学</t>
-  </si>
-  <si>
-    <t>Liu Han, 大连理工大学</t>
-  </si>
-  <si>
-    <t>Zhang Xianchao, 平顶山市第一人民医院</t>
-  </si>
-  <si>
-    <t>Zhang Xiaotong,</t>
-  </si>
-  <si>
-    <t>Zhu Qing, 陕西师范大学</t>
-  </si>
-  <si>
-    <t>Zuo Renxian, 武汉大学</t>
-  </si>
-  <si>
-    <t>Li Yuze, 广西大学</t>
-  </si>
-  <si>
-    <t>Liu Shan, Xi交通大学</t>
-  </si>
-  <si>
-    <t>Qin Lan, 三一药品有限公司</t>
-  </si>
-  <si>
-    <t>Li Weide, 兰州大学</t>
-  </si>
-  <si>
-    <t>Li Shijia, 赣州医院不是中国医学</t>
-  </si>
-  <si>
-    <t>Chen Qian,</t>
-  </si>
-  <si>
-    <t>Afrasiabi Mousa, 拉彭兰塔理工大学</t>
-  </si>
-  <si>
-    <t>Mohammadi Mohammad,</t>
-  </si>
-  <si>
-    <t>Rastegar Mohammad, 设拉子大学</t>
-  </si>
-  <si>
-    <t>Kargarian Amin, 路易斯安那州立大学</t>
-  </si>
-  <si>
-    <t>Jiang Dazhi, 汕头大学</t>
-  </si>
-  <si>
-    <t>Lin Zhizhe,</t>
-  </si>
-  <si>
-    <t>Han Guoqiang, 东国大学</t>
-  </si>
-  <si>
-    <t>Tang Kun,</t>
-  </si>
-  <si>
-    <t>Chen Shuyan, 中国科学技术大学，中国科学院</t>
-  </si>
-  <si>
-    <t>Khattak Aemal J., 内布拉斯加大学林肯</t>
-  </si>
-  <si>
-    <t>Pan Yingjiu, 长安大学</t>
-  </si>
-  <si>
-    <t>Han Chu,</t>
-  </si>
-  <si>
-    <t>Huang Yuchang, 长庚医院</t>
-  </si>
-  <si>
-    <t>Zhang Shuangyi, 内蒙古农业大学</t>
-  </si>
-  <si>
-    <t>Luo Xianglong, 四川大学</t>
-  </si>
-  <si>
-    <t>Li Danyang,</t>
-  </si>
-  <si>
-    <t>Zhang Shengrui, 长安大学</t>
-  </si>
-  <si>
-    <t>Liu Fagui, 华南理工大学</t>
-  </si>
-  <si>
-    <t>Cai Muqing, 华南理工大学</t>
-  </si>
-  <si>
-    <t>Wang Liangming,</t>
-  </si>
-  <si>
-    <t>Lu Yunsheng, 台湾农业研究所</t>
-  </si>
-  <si>
-    <t>Yang Yu, 长安大学</t>
-  </si>
-  <si>
-    <t>Bartlett Zoe, 曼彻斯特城市大学</t>
-  </si>
-  <si>
-    <t>Han Liangxiu, 曼彻斯特城市大学</t>
-  </si>
-  <si>
-    <t>Nguyen Trung Thanh, 利物浦约翰摩尔大学</t>
-  </si>
-  <si>
-    <t>Johnson Princy, 利物浦约翰摩尔大学</t>
-  </si>
-  <si>
-    <t>Zhao Lu, 温州职业技术学院</t>
-  </si>
-  <si>
-    <t>Zhou Yonghua, 北京交通大学</t>
-  </si>
-  <si>
-    <t>Lu Huapu, 清华大学</t>
-  </si>
-  <si>
-    <t>Fujita Hamido, Universiti Teknologi Malaysia</t>
-  </si>
-  <si>
-    <t>Peng Lu, 武汉理工大学</t>
-  </si>
-  <si>
-    <t>Liu Rui, 深圳理工大学</t>
-  </si>
-  <si>
-    <t>Wang Lin, 华南科技大学</t>
-  </si>
-  <si>
-    <t>Fandango Armando, Inst模拟和培训</t>
-  </si>
-  <si>
-    <t>Wiegand R. Paul, 温思罗普大学</t>
-  </si>
-  <si>
-    <t>Chen Xiaobo, 山东工商大学</t>
-  </si>
-  <si>
-    <t>Cai Xinwen, 陕西师范大学</t>
-  </si>
-  <si>
-    <t>Liang Jun, 江苏大学</t>
-  </si>
-  <si>
-    <t>Liu Qingchao, 中国科学院</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="198">
+  <si>
+    <t>Nie Yongwei, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Zhao Meihua, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Zhang Qing, 中山大学</t>
+  </si>
+  <si>
+    <t>Li Ping, 香港理工大学</t>
+  </si>
+  <si>
+    <t>Zhu Jian, 广东工业大学</t>
+  </si>
+  <si>
+    <t>Cai Hongmin, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Yang Ning, 北京交通大学</t>
+  </si>
+  <si>
+    <t>Zhang Chen, 北京交通大学</t>
+  </si>
+  <si>
+    <t>Zhang Yumo, 北京交通大学</t>
+  </si>
+  <si>
+    <t>Yang Haowei, 北京交通大学</t>
+  </si>
+  <si>
+    <t>Du Ling, 天津工业大学</t>
+  </si>
+  <si>
+    <t>Yang Ji, 阿尔伯塔大学</t>
+  </si>
+  <si>
+    <t>Zuo Xinxin, 阿尔伯塔大学</t>
+  </si>
+  <si>
+    <t>Wang Sen, 阿尔伯塔大学</t>
+  </si>
+  <si>
+    <t>Yu Zhenbo,</t>
+  </si>
+  <si>
+    <t>Li Xingyu, 阿尔伯塔大学</t>
+  </si>
+  <si>
+    <t>Ni Bingbing, 华为技术有限公司</t>
+  </si>
+  <si>
+    <t>Gong Minglun, 圭尔夫大学</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Jie, 湖南大学</t>
+  </si>
+  <si>
+    <t>Xiao Yi, 湖南大学</t>
+  </si>
+  <si>
+    <t>Chen Guo, 湖南大学</t>
+  </si>
+  <si>
+    <t>Sun Qingping, 湖南大学</t>
+  </si>
+  <si>
+    <t>Xu Fangqiang, 湖南大学</t>
+  </si>
+  <si>
+    <t>Leung Chi-Sing, 香港城市大学</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Zunfu, 湖南大学</t>
+  </si>
+  <si>
+    <t>Liu Fang, 湖南大学</t>
+  </si>
+  <si>
+    <t>Zhang Xue, 日产技术中心</t>
+  </si>
+  <si>
+    <t>Zhu Qianshu, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Han Chu, 广东省医学科学院&amp;广东省人民医院</t>
+  </si>
+  <si>
+    <t>Han Guoqiang, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Wong Tien-Tsin, 香港中文大学</t>
+  </si>
+  <si>
+    <t>He Shengfeng, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Halperin Tavi, 莱特瑞克斯公司</t>
+  </si>
+  <si>
+    <t>Hakim Hanit, 莱特瑞克斯公司</t>
+  </si>
+  <si>
+    <t>Vantzos Orestis, 莱特瑞克斯公司</t>
+  </si>
+  <si>
+    <t>Hochman Gershon, 莱特瑞克斯公司</t>
+  </si>
+  <si>
+    <t>Benaim Netai, 莱特瑞克斯公司</t>
+  </si>
+  <si>
+    <t>Sassy Lior, 莱特瑞克斯公司</t>
+  </si>
+  <si>
+    <t>Kupchik Michael, 莱特瑞克斯公司</t>
+  </si>
+  <si>
+    <t>Yu Hongkai, 俄亥俄大学系统</t>
+  </si>
+  <si>
+    <t>Zheng Kang, 南卡罗来纳大学系统</t>
+  </si>
+  <si>
+    <t>Fang Jianwu, 长安大学</t>
+  </si>
+  <si>
+    <t>Guo Hao, 南卡罗来纳大学系统</t>
+  </si>
+  <si>
+    <t>Wang Song, 南卡罗来纳大学系统</t>
+  </si>
+  <si>
+    <t>Song Shaoyue, 北京交通大学</t>
+  </si>
+  <si>
+    <t>Yu Hongkai, 德克萨斯大学系统</t>
+  </si>
+  <si>
+    <t>Miao Zhenjiang, 北京交通大学</t>
+  </si>
+  <si>
+    <t>Guo Dazhou, 南卡罗来纳大学系统</t>
+  </si>
+  <si>
+    <t>Ke Wei, 卡内基梅隆大学</t>
+  </si>
+  <si>
+    <t>Ma Cong, 北京交通大学</t>
+  </si>
+  <si>
+    <t>Ecormier-Nocca Pierre, 巴黎综合理工学院</t>
+  </si>
+  <si>
+    <t>Pettre Julien, 洛林大学</t>
+  </si>
+  <si>
+    <t>Memari Pooran, 巴黎综合理工学院</t>
+  </si>
+  <si>
+    <t>Cani Marie-Paule, 巴黎综合理工学院</t>
+  </si>
+  <si>
+    <t>Nam Seonghyeon, 延世大学</t>
+  </si>
+  <si>
+    <t>Ma Chongyang, Snap Inc.</t>
+  </si>
+  <si>
+    <t>Chai Menglei, Snap Inc.</t>
+  </si>
+  <si>
+    <t>Brendel William, Snap Inc.</t>
+  </si>
+  <si>
+    <t>Xu Ning, 亚马逊无人便利店</t>
+  </si>
+  <si>
+    <t>Kim Seon Joo, 延世大学</t>
+  </si>
+  <si>
+    <t>Zhu Li, 湖北民族大学</t>
+  </si>
+  <si>
+    <t>Zheng RuoJun, 湖北民族大学</t>
+  </si>
+  <si>
+    <t>Li Jun, 湖北民族大学</t>
+  </si>
+  <si>
+    <t>Ran Lin, 湖北民族大学</t>
+  </si>
+  <si>
+    <t>Yu Ya, 湖北民族大学</t>
+  </si>
+  <si>
+    <t>Guo Li, 湖北民族大学</t>
+  </si>
+  <si>
+    <t>Hu Tao, 湖北民族大学</t>
+  </si>
+  <si>
+    <t>Hsieh Chia-Wei, 国立阳明交通大学</t>
+  </si>
+  <si>
+    <t>Chen Chieh-Yun, 国立阳明交通大学</t>
+  </si>
+  <si>
+    <t>Chou Chien-Lung, 国立阳明交通大学</t>
+  </si>
+  <si>
+    <t>Shuai Hong-Han, 国立阳明交通大学</t>
+  </si>
+  <si>
+    <t>Liu Jiaying, 北京大学</t>
+  </si>
+  <si>
+    <t>Cheng Wen-Huang, 国立阳明交通大学</t>
+  </si>
+  <si>
+    <t>Zhou Peiyao, 湖南大学</t>
+  </si>
+  <si>
+    <t>Zheng Yan, 湖南大学</t>
+  </si>
+  <si>
+    <t>Leung Chi-Sing, 香港城市大学</t>
+  </si>
+  <si>
+    <t>Bustillos E., 亚当森大学</t>
+  </si>
+  <si>
+    <t>Barfeh D. Pour Yousefian, 亚当森大学</t>
+  </si>
+  <si>
+    <t>Gong Wenyong, 暨南大学</t>
+  </si>
+  <si>
+    <t>Xu Weihong, 中山大学</t>
+  </si>
+  <si>
+    <t>Wu Leqin, 暨南大学</t>
+  </si>
+  <si>
+    <t>Xie Xiaohua, 中山大学</t>
+  </si>
+  <si>
+    <t>Cheng Zhanglin, 中国科学院</t>
+  </si>
+  <si>
+    <t>Weng Chung-Yi, 华盛顿大学</t>
+  </si>
+  <si>
+    <t>Curless Brian, 华盛顿大学</t>
+  </si>
+  <si>
+    <t>Kemelmacher-Shlizerman Ira, 华盛顿大学</t>
+  </si>
+  <si>
+    <t>Shaham Tamar Rott, 以色列理工学院</t>
+  </si>
+  <si>
+    <t>Dekel Tali, 谷歌公司</t>
+  </si>
+  <si>
+    <t>Michaeli Tomer, 以色列理工学院</t>
+  </si>
+  <si>
+    <t>Rodriguez Simon, 法国国家信息与自动化研究所</t>
+  </si>
+  <si>
+    <t>Bousseau Adrien, 法国国家信息与自动化研究所</t>
+  </si>
+  <si>
+    <t>Durand Fredo, 法国国家信息与自动化研究所</t>
+  </si>
+  <si>
+    <t>Drettakis George, 法国国家信息与自动化研究所</t>
+  </si>
+  <si>
+    <t>Yang Wenhan, 北京大学</t>
+  </si>
+  <si>
+    <t>Sun Xiaoyan, 微软亚洲研究院</t>
+  </si>
+  <si>
+    <t>Zeng Wenjun, 微软亚洲研究院</t>
+  </si>
+  <si>
+    <t>Okabe Makoto, 静冈大学</t>
+  </si>
+  <si>
+    <t>Dobashi Yoshinori, 北海道大学</t>
+  </si>
+  <si>
+    <t>Anjyo Ken, 欧利姆数字公司</t>
+  </si>
+  <si>
+    <t>Zuffi Silvia, 意大利国家研究委员会</t>
+  </si>
+  <si>
+    <t>Kanazawa Angjoo, 加州大学系统</t>
+  </si>
+  <si>
+    <t>Black Michael J., 马克斯·普朗克学会</t>
+  </si>
+  <si>
+    <t>Yu Hongkai, 南卡罗来纳大学系统</t>
+  </si>
+  <si>
+    <t>Fang Jianwu, 西安交通大学</t>
+  </si>
+  <si>
+    <t>Feng Wei, 天津大学</t>
+  </si>
+  <si>
+    <t>Wang Song, 天津大学</t>
+  </si>
+  <si>
+    <t>Arora R., 多伦多大学</t>
+  </si>
+  <si>
+    <t>Darolia I., 印度理工学院系统（IIT 系统）</t>
+  </si>
+  <si>
+    <t>Namboodiri V. P., 印度理工学院系统（IIT 系统）</t>
+  </si>
+  <si>
+    <t>Singh K., 多伦多大学</t>
+  </si>
+  <si>
+    <t>Bousseau A., Inria Sophia Antipolis</t>
+  </si>
+  <si>
+    <t>Zhu Yufeng, 不列颠哥伦比亚大学</t>
+  </si>
+  <si>
+    <t>Popovic Jovan, 奥多比系统公司</t>
+  </si>
+  <si>
+    <t>Bridson Robert, 不列颠哥伦比亚大学</t>
+  </si>
+  <si>
+    <t>Kaufman Danny M., 奥多比系统公司</t>
+  </si>
+  <si>
+    <t>Thirunarayanan Ishwarya, 佛罗里达州立大学系统</t>
+  </si>
+  <si>
+    <t>Khetarpal Khimya, 佛罗里达州立大学系统</t>
+  </si>
+  <si>
+    <t>Koppal Sanjeev, 佛罗里达州立大学系统</t>
+  </si>
+  <si>
+    <t>Le Meur Olivier, 雷恩第一大学</t>
+  </si>
+  <si>
+    <t>Shea John, 佛罗里达州立大学系统</t>
+  </si>
+  <si>
+    <t>Jain Eakta, 佛罗里达州立大学系统</t>
+  </si>
+  <si>
+    <t>Bonneel Nicolas, 法国国家科学研究中心（CNRS）</t>
+  </si>
+  <si>
+    <t>Kovacs Balazs, 康奈尔大学</t>
+  </si>
+  <si>
+    <t>Paris Sylvain, 奥多比系统公司</t>
+  </si>
+  <si>
+    <t>Bala Kavita, 康奈尔大学</t>
+  </si>
+  <si>
+    <t>Zhang Wei, 香港大学</t>
+  </si>
+  <si>
+    <t>Fang Chao-Wei, 香港大学</t>
+  </si>
+  <si>
+    <t>Li Guan-Bin, 中山大学</t>
+  </si>
+  <si>
+    <t>Zhu Rui,</t>
+  </si>
+  <si>
+    <t>Cao Yun, 上海交通大学</t>
+  </si>
+  <si>
+    <t>Zhou Zhiming, 上海交通大学</t>
+  </si>
+  <si>
+    <t>Zhang Weinan, 上海交通大学</t>
+  </si>
+  <si>
+    <t>Yu Yong, 上海交通大学</t>
+  </si>
+  <si>
+    <t>Iizuka Satoshi, 早稻田大学</t>
+  </si>
+  <si>
+    <t>Simo-Serra Edgar, 早稻田大学</t>
+  </si>
+  <si>
+    <t>Ishikawa Hiroshi, 早稻田大学</t>
+  </si>
+  <si>
+    <t>Faridul H. Sheikh, 特艺集团公司</t>
+  </si>
+  <si>
+    <t>Pouli T., 特艺集团公司</t>
+  </si>
+  <si>
+    <t>Chamaret C., 特艺集团公司</t>
+  </si>
+  <si>
+    <t>Stauder J., 特艺集团公司</t>
+  </si>
+  <si>
+    <t>Reinhard E., 特艺集团公司</t>
+  </si>
+  <si>
+    <t>Kuzovkin D., 特艺集团公司</t>
+  </si>
+  <si>
+    <t>Tremeau A., 让·莫内大学</t>
+  </si>
+  <si>
+    <t>Park Jaesik, 英特尔公司</t>
+  </si>
+  <si>
+    <t>Tai Yu-Wing, 商汤科技</t>
+  </si>
+  <si>
+    <t>Sinha Sudipta N., 微软</t>
+  </si>
+  <si>
+    <t>Kweon In So, 韩国科学技术院</t>
+  </si>
+  <si>
+    <t>Bazin Jean-Charles, 迪士尼度假区</t>
+  </si>
+  <si>
+    <t>Sorkine-Hornung Alexander, 迪士尼度假区</t>
+  </si>
+  <si>
+    <t>Jhou Wei-Cih, 中国台湾“中央研究院”</t>
+  </si>
+  <si>
+    <t>Cheng Wen-Huang, 中国台湾“中央研究院”</t>
+  </si>
+  <si>
+    <t>Yeh Chih-Kuo, 成功大学</t>
+  </si>
+  <si>
+    <t>Jayaraman Pradeep Kumar, 南洋理工大学</t>
+  </si>
+  <si>
+    <t>Liu Xiaopei, 南洋理工大学</t>
+  </si>
+  <si>
+    <t>Fu Chi-Wing, 南洋理工大学</t>
+  </si>
+  <si>
+    <t>Lee Tong-Yee, 成功大学</t>
+  </si>
+  <si>
+    <t>Ling Yonggen, 香港科技大学</t>
+  </si>
+  <si>
+    <t>Au Oscar C., 香港科技大学</t>
+  </si>
+  <si>
+    <t>Pang Jiahao, 香港科技大学</t>
+  </si>
+  <si>
+    <t>Zeng Jin, 香港科技大学</t>
+  </si>
+  <si>
+    <t>Yuan Yuan, 香港科技大学</t>
+  </si>
+  <si>
+    <t>Zheng Amin, 香港科技大学</t>
+  </si>
+  <si>
+    <t>Chen Kan, 南洋理工大学</t>
+  </si>
+  <si>
+    <t>Zhang Xingzi, 南洋理工大学</t>
+  </si>
+  <si>
+    <t>Rasool Shahzad, 南洋理工大学</t>
+  </si>
+  <si>
+    <t>Johan Henry, 南洋理工大学</t>
+  </si>
+  <si>
+    <t>Sourin Alexei, 南洋理工大学</t>
+  </si>
+  <si>
+    <t>Tang Nick C., 中国台湾“中央研究院”</t>
+  </si>
+  <si>
+    <t>Hsu Chiou-Ting, 国立清华大学</t>
+  </si>
+  <si>
+    <t>Weng Ming-Fang, 中国台湾“中央研究院”</t>
+  </si>
+  <si>
+    <t>Lin Tsung-Yi, 加州大学系统</t>
+  </si>
+  <si>
+    <t>Liao Hong-Yuan Mark, 中国台湾“中央研究院”</t>
+  </si>
+  <si>
+    <t>Borgo R., 斯旺西大学</t>
+  </si>
+  <si>
+    <t>Chen M., 牛津大学</t>
+  </si>
+  <si>
+    <t>Daubney B., 斯旺西大学</t>
+  </si>
+  <si>
+    <t>Grundy E., 斯旺西大学</t>
+  </si>
+  <si>
+    <t>Heidemann G., 德国奥尔登堡大学</t>
+  </si>
+  <si>
+    <t>Hoeferlin B., 斯图加特大学</t>
+  </si>
+  <si>
+    <t>Hoeferlin M., 斯图加特大学</t>
+  </si>
+  <si>
+    <t>Ling Chih-Hung, 国立阳明交通大学</t>
+  </si>
+  <si>
+    <t>Lin Chia-Wen, 国立清华大学</t>
+  </si>
+  <si>
+    <t>Akae Naoki, 大阪大学</t>
+  </si>
+  <si>
+    <t>Al Mansur, 大阪大学</t>
+  </si>
+  <si>
+    <t>Makihara Yasushi, 大阪大学</t>
+  </si>
+  <si>
+    <t>Yagi Yasushi, 大阪大学</t>
+  </si>
+  <si>
+    <t>Liang Yu-Ming, 阿莱西亚大学</t>
+  </si>
+  <si>
+    <t>Chen Yong-Sheng, 国立阳明交通大学</t>
+  </si>
+  <si>
+    <t>HaCohen Yoav, 耶路撒冷希伯来大学</t>
+  </si>
+  <si>
+    <t>Shechtman Eli,</t>
+  </si>
+  <si>
+    <t>Goldman Dan B.,</t>
+  </si>
+  <si>
+    <t>Lischinski Dani, 耶路撒冷希伯来大学</t>
+  </si>
+  <si>
+    <t>Choudhury Biswarup, 印度理工学院系统（IIT 系统）</t>
+  </si>
+  <si>
+    <t>Raghothaman Ambareesha, 印度理工学院系统（IIT 系统）</t>
+  </si>
+  <si>
+    <t>Chandran Sharat, 印度理工学院系统（IIT 系统）</t>
+  </si>
+  <si>
+    <t>Xu Jiong, 西北工业大学</t>
+  </si>
+  <si>
+    <t>Wang Qing, 西北工业大学</t>
+  </si>
+  <si>
+    <t>Yang Jie, 卡内基梅隆大学</t>
+  </si>
+  <si>
+    <t>Liao Hong-Yuan Mark, 国立阳明交通大学</t>
   </si>
 </sst>
 </file>
@@ -1151,348 +1570,882 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BC6B89-48C5-431F-A1BB-ED09F0C2EA8C}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/author_title_input.xlsx
+++ b/author_title_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24761\PycharmProjects\pythonProject7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DF54D0-154F-4D85-888C-2D44C085D947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3369CA7F-BD2E-434D-AC18-171C22D38E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12120" xr2:uid="{D324918D-E3A1-4CCE-B36C-4E3A70C9A833}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D324918D-E3A1-4CCE-B36C-4E3A70C9A833}"/>
   </bookViews>
   <sheets>
     <sheet name="author_title_input" sheetId="1" r:id="rId1"/>
@@ -20,602 +20,471 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="198">
-  <si>
-    <t>Nie Yongwei, 华南理工大学</t>
-  </si>
-  <si>
-    <t>Zhao Meihua, 华南理工大学</t>
-  </si>
-  <si>
-    <t>Zhang Qing, 中山大学</t>
-  </si>
-  <si>
-    <t>Li Ping, 香港理工大学</t>
-  </si>
-  <si>
-    <t>Zhu Jian, 广东工业大学</t>
-  </si>
-  <si>
-    <t>Cai Hongmin, 华南理工大学</t>
-  </si>
-  <si>
-    <t>Yang Ning, 北京交通大学</t>
-  </si>
-  <si>
-    <t>Zhang Chen, 北京交通大学</t>
-  </si>
-  <si>
-    <t>Zhang Yumo, 北京交通大学</t>
-  </si>
-  <si>
-    <t>Yang Haowei, 北京交通大学</t>
-  </si>
-  <si>
-    <t>Du Ling, 天津工业大学</t>
-  </si>
-  <si>
-    <t>Yang Ji, 阿尔伯塔大学</t>
-  </si>
-  <si>
-    <t>Zuo Xinxin, 阿尔伯塔大学</t>
-  </si>
-  <si>
-    <t>Wang Sen, 阿尔伯塔大学</t>
-  </si>
-  <si>
-    <t>Yu Zhenbo,</t>
-  </si>
-  <si>
-    <t>Li Xingyu, 阿尔伯塔大学</t>
-  </si>
-  <si>
-    <t>Ni Bingbing, 华为技术有限公司</t>
-  </si>
-  <si>
-    <t>Gong Minglun, 圭尔夫大学</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhang Jie, 湖南大学</t>
-  </si>
-  <si>
-    <t>Xiao Yi, 湖南大学</t>
-  </si>
-  <si>
-    <t>Chen Guo, 湖南大学</t>
-  </si>
-  <si>
-    <t>Sun Qingping, 湖南大学</t>
-  </si>
-  <si>
-    <t>Xu Fangqiang, 湖南大学</t>
-  </si>
-  <si>
-    <t>Leung Chi-Sing, 香港城市大学</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Zunfu, 湖南大学</t>
-  </si>
-  <si>
-    <t>Liu Fang, 湖南大学</t>
-  </si>
-  <si>
-    <t>Zhang Xue, 日产技术中心</t>
-  </si>
-  <si>
-    <t>Zhu Qianshu, 华南理工大学</t>
-  </si>
-  <si>
-    <t>Han Chu, 广东省医学科学院&amp;广东省人民医院</t>
-  </si>
-  <si>
-    <t>Han Guoqiang, 华南理工大学</t>
-  </si>
-  <si>
-    <t>Wong Tien-Tsin, 香港中文大学</t>
-  </si>
-  <si>
-    <t>He Shengfeng, 华南理工大学</t>
-  </si>
-  <si>
-    <t>Halperin Tavi, 莱特瑞克斯公司</t>
-  </si>
-  <si>
-    <t>Hakim Hanit, 莱特瑞克斯公司</t>
-  </si>
-  <si>
-    <t>Vantzos Orestis, 莱特瑞克斯公司</t>
-  </si>
-  <si>
-    <t>Hochman Gershon, 莱特瑞克斯公司</t>
-  </si>
-  <si>
-    <t>Benaim Netai, 莱特瑞克斯公司</t>
-  </si>
-  <si>
-    <t>Sassy Lior, 莱特瑞克斯公司</t>
-  </si>
-  <si>
-    <t>Kupchik Michael, 莱特瑞克斯公司</t>
-  </si>
-  <si>
-    <t>Yu Hongkai, 俄亥俄大学系统</t>
-  </si>
-  <si>
-    <t>Zheng Kang, 南卡罗来纳大学系统</t>
-  </si>
-  <si>
-    <t>Fang Jianwu, 长安大学</t>
-  </si>
-  <si>
-    <t>Guo Hao, 南卡罗来纳大学系统</t>
-  </si>
-  <si>
-    <t>Wang Song, 南卡罗来纳大学系统</t>
-  </si>
-  <si>
-    <t>Song Shaoyue, 北京交通大学</t>
-  </si>
-  <si>
-    <t>Yu Hongkai, 德克萨斯大学系统</t>
-  </si>
-  <si>
-    <t>Miao Zhenjiang, 北京交通大学</t>
-  </si>
-  <si>
-    <t>Guo Dazhou, 南卡罗来纳大学系统</t>
-  </si>
-  <si>
-    <t>Ke Wei, 卡内基梅隆大学</t>
-  </si>
-  <si>
-    <t>Ma Cong, 北京交通大学</t>
-  </si>
-  <si>
-    <t>Ecormier-Nocca Pierre, 巴黎综合理工学院</t>
-  </si>
-  <si>
-    <t>Pettre Julien, 洛林大学</t>
-  </si>
-  <si>
-    <t>Memari Pooran, 巴黎综合理工学院</t>
-  </si>
-  <si>
-    <t>Cani Marie-Paule, 巴黎综合理工学院</t>
-  </si>
-  <si>
-    <t>Nam Seonghyeon, 延世大学</t>
-  </si>
-  <si>
-    <t>Ma Chongyang, Snap Inc.</t>
-  </si>
-  <si>
-    <t>Chai Menglei, Snap Inc.</t>
-  </si>
-  <si>
-    <t>Brendel William, Snap Inc.</t>
-  </si>
-  <si>
-    <t>Xu Ning, 亚马逊无人便利店</t>
-  </si>
-  <si>
-    <t>Kim Seon Joo, 延世大学</t>
-  </si>
-  <si>
-    <t>Zhu Li, 湖北民族大学</t>
-  </si>
-  <si>
-    <t>Zheng RuoJun, 湖北民族大学</t>
-  </si>
-  <si>
-    <t>Li Jun, 湖北民族大学</t>
-  </si>
-  <si>
-    <t>Ran Lin, 湖北民族大学</t>
-  </si>
-  <si>
-    <t>Yu Ya, 湖北民族大学</t>
-  </si>
-  <si>
-    <t>Guo Li, 湖北民族大学</t>
-  </si>
-  <si>
-    <t>Hu Tao, 湖北民族大学</t>
-  </si>
-  <si>
-    <t>Hsieh Chia-Wei, 国立阳明交通大学</t>
-  </si>
-  <si>
-    <t>Chen Chieh-Yun, 国立阳明交通大学</t>
-  </si>
-  <si>
-    <t>Chou Chien-Lung, 国立阳明交通大学</t>
-  </si>
-  <si>
-    <t>Shuai Hong-Han, 国立阳明交通大学</t>
-  </si>
-  <si>
-    <t>Liu Jiaying, 北京大学</t>
-  </si>
-  <si>
-    <t>Cheng Wen-Huang, 国立阳明交通大学</t>
-  </si>
-  <si>
-    <t>Zhou Peiyao, 湖南大学</t>
-  </si>
-  <si>
-    <t>Zheng Yan, 湖南大学</t>
-  </si>
-  <si>
-    <t>Leung Chi-Sing, 香港城市大学</t>
-  </si>
-  <si>
-    <t>Bustillos E., 亚当森大学</t>
-  </si>
-  <si>
-    <t>Barfeh D. Pour Yousefian, 亚当森大学</t>
-  </si>
-  <si>
-    <t>Gong Wenyong, 暨南大学</t>
-  </si>
-  <si>
-    <t>Xu Weihong, 中山大学</t>
-  </si>
-  <si>
-    <t>Wu Leqin, 暨南大学</t>
-  </si>
-  <si>
-    <t>Xie Xiaohua, 中山大学</t>
-  </si>
-  <si>
-    <t>Cheng Zhanglin, 中国科学院</t>
-  </si>
-  <si>
-    <t>Weng Chung-Yi, 华盛顿大学</t>
-  </si>
-  <si>
-    <t>Curless Brian, 华盛顿大学</t>
-  </si>
-  <si>
-    <t>Kemelmacher-Shlizerman Ira, 华盛顿大学</t>
-  </si>
-  <si>
-    <t>Shaham Tamar Rott, 以色列理工学院</t>
-  </si>
-  <si>
-    <t>Dekel Tali, 谷歌公司</t>
-  </si>
-  <si>
-    <t>Michaeli Tomer, 以色列理工学院</t>
-  </si>
-  <si>
-    <t>Rodriguez Simon, 法国国家信息与自动化研究所</t>
-  </si>
-  <si>
-    <t>Bousseau Adrien, 法国国家信息与自动化研究所</t>
-  </si>
-  <si>
-    <t>Durand Fredo, 法国国家信息与自动化研究所</t>
-  </si>
-  <si>
-    <t>Drettakis George, 法国国家信息与自动化研究所</t>
-  </si>
-  <si>
-    <t>Yang Wenhan, 北京大学</t>
-  </si>
-  <si>
-    <t>Sun Xiaoyan, 微软亚洲研究院</t>
-  </si>
-  <si>
-    <t>Zeng Wenjun, 微软亚洲研究院</t>
-  </si>
-  <si>
-    <t>Okabe Makoto, 静冈大学</t>
-  </si>
-  <si>
-    <t>Dobashi Yoshinori, 北海道大学</t>
-  </si>
-  <si>
-    <t>Anjyo Ken, 欧利姆数字公司</t>
-  </si>
-  <si>
-    <t>Zuffi Silvia, 意大利国家研究委员会</t>
-  </si>
-  <si>
-    <t>Kanazawa Angjoo, 加州大学系统</t>
-  </si>
-  <si>
-    <t>Black Michael J., 马克斯·普朗克学会</t>
-  </si>
-  <si>
-    <t>Yu Hongkai, 南卡罗来纳大学系统</t>
-  </si>
-  <si>
-    <t>Fang Jianwu, 西安交通大学</t>
-  </si>
-  <si>
-    <t>Feng Wei, 天津大学</t>
-  </si>
-  <si>
-    <t>Wang Song, 天津大学</t>
-  </si>
-  <si>
-    <t>Arora R., 多伦多大学</t>
-  </si>
-  <si>
-    <t>Darolia I., 印度理工学院系统（IIT 系统）</t>
-  </si>
-  <si>
-    <t>Namboodiri V. P., 印度理工学院系统（IIT 系统）</t>
-  </si>
-  <si>
-    <t>Singh K., 多伦多大学</t>
-  </si>
-  <si>
-    <t>Bousseau A., Inria Sophia Antipolis</t>
-  </si>
-  <si>
-    <t>Zhu Yufeng, 不列颠哥伦比亚大学</t>
-  </si>
-  <si>
-    <t>Popovic Jovan, 奥多比系统公司</t>
-  </si>
-  <si>
-    <t>Bridson Robert, 不列颠哥伦比亚大学</t>
-  </si>
-  <si>
-    <t>Kaufman Danny M., 奥多比系统公司</t>
-  </si>
-  <si>
-    <t>Thirunarayanan Ishwarya, 佛罗里达州立大学系统</t>
-  </si>
-  <si>
-    <t>Khetarpal Khimya, 佛罗里达州立大学系统</t>
-  </si>
-  <si>
-    <t>Koppal Sanjeev, 佛罗里达州立大学系统</t>
-  </si>
-  <si>
-    <t>Le Meur Olivier, 雷恩第一大学</t>
-  </si>
-  <si>
-    <t>Shea John, 佛罗里达州立大学系统</t>
-  </si>
-  <si>
-    <t>Jain Eakta, 佛罗里达州立大学系统</t>
-  </si>
-  <si>
-    <t>Bonneel Nicolas, 法国国家科学研究中心（CNRS）</t>
-  </si>
-  <si>
-    <t>Kovacs Balazs, 康奈尔大学</t>
-  </si>
-  <si>
-    <t>Paris Sylvain, 奥多比系统公司</t>
-  </si>
-  <si>
-    <t>Bala Kavita, 康奈尔大学</t>
-  </si>
-  <si>
-    <t>Zhang Wei, 香港大学</t>
-  </si>
-  <si>
-    <t>Fang Chao-Wei, 香港大学</t>
-  </si>
-  <si>
-    <t>Li Guan-Bin, 中山大学</t>
-  </si>
-  <si>
-    <t>Zhu Rui,</t>
-  </si>
-  <si>
-    <t>Cao Yun, 上海交通大学</t>
-  </si>
-  <si>
-    <t>Zhou Zhiming, 上海交通大学</t>
-  </si>
-  <si>
-    <t>Zhang Weinan, 上海交通大学</t>
-  </si>
-  <si>
-    <t>Yu Yong, 上海交通大学</t>
-  </si>
-  <si>
-    <t>Iizuka Satoshi, 早稻田大学</t>
-  </si>
-  <si>
-    <t>Simo-Serra Edgar, 早稻田大学</t>
-  </si>
-  <si>
-    <t>Ishikawa Hiroshi, 早稻田大学</t>
-  </si>
-  <si>
-    <t>Faridul H. Sheikh, 特艺集团公司</t>
-  </si>
-  <si>
-    <t>Pouli T., 特艺集团公司</t>
-  </si>
-  <si>
-    <t>Chamaret C., 特艺集团公司</t>
-  </si>
-  <si>
-    <t>Stauder J., 特艺集团公司</t>
-  </si>
-  <si>
-    <t>Reinhard E., 特艺集团公司</t>
-  </si>
-  <si>
-    <t>Kuzovkin D., 特艺集团公司</t>
-  </si>
-  <si>
-    <t>Tremeau A., 让·莫内大学</t>
-  </si>
-  <si>
-    <t>Park Jaesik, 英特尔公司</t>
-  </si>
-  <si>
-    <t>Tai Yu-Wing, 商汤科技</t>
-  </si>
-  <si>
-    <t>Sinha Sudipta N., 微软</t>
-  </si>
-  <si>
-    <t>Kweon In So, 韩国科学技术院</t>
-  </si>
-  <si>
-    <t>Bazin Jean-Charles, 迪士尼度假区</t>
-  </si>
-  <si>
-    <t>Sorkine-Hornung Alexander, 迪士尼度假区</t>
-  </si>
-  <si>
-    <t>Jhou Wei-Cih, 中国台湾“中央研究院”</t>
-  </si>
-  <si>
-    <t>Cheng Wen-Huang, 中国台湾“中央研究院”</t>
-  </si>
-  <si>
-    <t>Yeh Chih-Kuo, 成功大学</t>
-  </si>
-  <si>
-    <t>Jayaraman Pradeep Kumar, 南洋理工大学</t>
-  </si>
-  <si>
-    <t>Liu Xiaopei, 南洋理工大学</t>
-  </si>
-  <si>
-    <t>Fu Chi-Wing, 南洋理工大学</t>
-  </si>
-  <si>
-    <t>Lee Tong-Yee, 成功大学</t>
-  </si>
-  <si>
-    <t>Ling Yonggen, 香港科技大学</t>
-  </si>
-  <si>
-    <t>Au Oscar C., 香港科技大学</t>
-  </si>
-  <si>
-    <t>Pang Jiahao, 香港科技大学</t>
-  </si>
-  <si>
-    <t>Zeng Jin, 香港科技大学</t>
-  </si>
-  <si>
-    <t>Yuan Yuan, 香港科技大学</t>
-  </si>
-  <si>
-    <t>Zheng Amin, 香港科技大学</t>
-  </si>
-  <si>
-    <t>Chen Kan, 南洋理工大学</t>
-  </si>
-  <si>
-    <t>Zhang Xingzi, 南洋理工大学</t>
-  </si>
-  <si>
-    <t>Rasool Shahzad, 南洋理工大学</t>
-  </si>
-  <si>
-    <t>Johan Henry, 南洋理工大学</t>
-  </si>
-  <si>
-    <t>Sourin Alexei, 南洋理工大学</t>
-  </si>
-  <si>
-    <t>Tang Nick C., 中国台湾“中央研究院”</t>
-  </si>
-  <si>
-    <t>Hsu Chiou-Ting, 国立清华大学</t>
-  </si>
-  <si>
-    <t>Weng Ming-Fang, 中国台湾“中央研究院”</t>
-  </si>
-  <si>
-    <t>Lin Tsung-Yi, 加州大学系统</t>
-  </si>
-  <si>
-    <t>Liao Hong-Yuan Mark, 中国台湾“中央研究院”</t>
-  </si>
-  <si>
-    <t>Borgo R., 斯旺西大学</t>
-  </si>
-  <si>
-    <t>Chen M., 牛津大学</t>
-  </si>
-  <si>
-    <t>Daubney B., 斯旺西大学</t>
-  </si>
-  <si>
-    <t>Grundy E., 斯旺西大学</t>
-  </si>
-  <si>
-    <t>Heidemann G., 德国奥尔登堡大学</t>
-  </si>
-  <si>
-    <t>Hoeferlin B., 斯图加特大学</t>
-  </si>
-  <si>
-    <t>Hoeferlin M., 斯图加特大学</t>
-  </si>
-  <si>
-    <t>Ling Chih-Hung, 国立阳明交通大学</t>
-  </si>
-  <si>
-    <t>Lin Chia-Wen, 国立清华大学</t>
-  </si>
-  <si>
-    <t>Akae Naoki, 大阪大学</t>
-  </si>
-  <si>
-    <t>Al Mansur, 大阪大学</t>
-  </si>
-  <si>
-    <t>Makihara Yasushi, 大阪大学</t>
-  </si>
-  <si>
-    <t>Yagi Yasushi, 大阪大学</t>
-  </si>
-  <si>
-    <t>Liang Yu-Ming, 阿莱西亚大学</t>
-  </si>
-  <si>
-    <t>Chen Yong-Sheng, 国立阳明交通大学</t>
-  </si>
-  <si>
-    <t>HaCohen Yoav, 耶路撒冷希伯来大学</t>
-  </si>
-  <si>
-    <t>Shechtman Eli,</t>
-  </si>
-  <si>
-    <t>Goldman Dan B.,</t>
-  </si>
-  <si>
-    <t>Lischinski Dani, 耶路撒冷希伯来大学</t>
-  </si>
-  <si>
-    <t>Choudhury Biswarup, 印度理工学院系统（IIT 系统）</t>
-  </si>
-  <si>
-    <t>Raghothaman Ambareesha, 印度理工学院系统（IIT 系统）</t>
-  </si>
-  <si>
-    <t>Chandran Sharat, 印度理工学院系统（IIT 系统）</t>
-  </si>
-  <si>
-    <t>Xu Jiong, 西北工业大学</t>
-  </si>
-  <si>
-    <t>Wang Qing, 西北工业大学</t>
-  </si>
-  <si>
-    <t>Yang Jie, 卡内基梅隆大学</t>
-  </si>
-  <si>
-    <t>Liao Hong-Yuan Mark, 国立阳明交通大学</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="155">
+  <si>
+    <t>Chang Dongliang, 北京邮电大学</t>
+  </si>
+  <si>
+    <t>Sain Aneeshan, 萨里大学</t>
+  </si>
+  <si>
+    <t>Ma Zhanyu, 北京邮电大学</t>
+  </si>
+  <si>
+    <t>Song Yi-Zhe, 萨里大学</t>
+  </si>
+  <si>
+    <t>Wang Ruiping, 中国科学院</t>
+  </si>
+  <si>
+    <t>Guo Jun, 北京邮电大学</t>
+  </si>
+  <si>
+    <t>Cui Chaoran, 山东财经大学</t>
+  </si>
+  <si>
+    <t>Meng Fan'an, 山东财经大学</t>
+  </si>
+  <si>
+    <t>Zhang Chunyun, 山东财经大学</t>
+  </si>
+  <si>
+    <t>Liu Ziyi, 山东财经大学</t>
+  </si>
+  <si>
+    <t>Zhu Lei, 山东师范大学</t>
+  </si>
+  <si>
+    <t>Gong Shuai, 山东财经大学</t>
+  </si>
+  <si>
+    <t>Lin Xue, 山东财经大学</t>
+  </si>
+  <si>
+    <t>Liu Youfa, 武汉大学</t>
+  </si>
+  <si>
+    <t>Du Bo, 武汉大学</t>
+  </si>
+  <si>
+    <t>Chen Yongyong, 哈尔滨工业大学</t>
+  </si>
+  <si>
+    <t>Zhang Lefei, 武汉大学</t>
+  </si>
+  <si>
+    <t>Lin Yu-e, 安徽理工大学</t>
+  </si>
+  <si>
+    <t>Liu Erhu, 安徽理工大学</t>
+  </si>
+  <si>
+    <t>Liang Xingzhu, 安徽理工大学</t>
+  </si>
+  <si>
+    <t>Chen Miaomiao, 安徽理工大学</t>
+  </si>
+  <si>
+    <t>Yan Xinyun, 金陵科技学院</t>
+  </si>
+  <si>
+    <t>He Chunmei, 湘潭大学</t>
+  </si>
+  <si>
+    <t>Li Xiuguang, 湘潭大学</t>
+  </si>
+  <si>
+    <t>Xia Yue, 湘潭大学</t>
+  </si>
+  <si>
+    <t>Tang Jing, 湘潭大学</t>
+  </si>
+  <si>
+    <t>Yang Jie, 湘潭大学</t>
+  </si>
+  <si>
+    <t>Ye Zhengchun, 湘潭大学</t>
+  </si>
+  <si>
+    <t>Ding Li, 西北工业大学</t>
+  </si>
+  <si>
+    <t>Song Xiang, 西安交通大学</t>
+  </si>
+  <si>
+    <t>He Yuhang, 西安交通大学</t>
+  </si>
+  <si>
+    <t>Wang Changxin, 西安交通大学</t>
+  </si>
+  <si>
+    <t>Dong Songlin, 西安交通大学</t>
+  </si>
+  <si>
+    <t>Wei Xing, 西安交通大学</t>
+  </si>
+  <si>
+    <t>Gong Yihong, 西安交通大学</t>
+  </si>
+  <si>
+    <t>Liu Xianyuan, 中国科学院</t>
+  </si>
+  <si>
+    <t>Zhou Shuo, 谢菲尔德大学</t>
+  </si>
+  <si>
+    <t>Lei Tao, 中国科学院</t>
+  </si>
+  <si>
+    <t>Jiang Ping, 中国科学院</t>
+  </si>
+  <si>
+    <t>Chen Zhixiang, 谢菲尔德大学</t>
+  </si>
+  <si>
+    <t>Lu Haiping, 谢菲尔德大学</t>
+  </si>
+  <si>
+    <t>Li Jingwei, 中国科学院</t>
+  </si>
+  <si>
+    <t>Li Yuan, 中国科学院</t>
+  </si>
+  <si>
+    <t>Wang Huanjie, 中国科学院</t>
+  </si>
+  <si>
+    <t>Liu Chengbao, 中国科学院</t>
+  </si>
+  <si>
+    <t>Tan Jie, 中国科学院</t>
+  </si>
+  <si>
+    <t>Zhou Lihua, 电子科技大学</t>
+  </si>
+  <si>
+    <t>Xiao Siying, 电子科技大学</t>
+  </si>
+  <si>
+    <t>Ye Mao, 电子科技大学</t>
+  </si>
+  <si>
+    <t>Zhu Xiatian, 萨里大学</t>
+  </si>
+  <si>
+    <t>Li Shuaifeng, 电子科技大学</t>
+  </si>
+  <si>
+    <t>Lv Qingxuan, 中国海洋大学</t>
+  </si>
+  <si>
+    <t>Li Yuezun, 中国海洋大学</t>
+  </si>
+  <si>
+    <t>Dong Junyu, 中国海洋大学</t>
+  </si>
+  <si>
+    <t>Guo Ziqian, 中国海洋大学</t>
+  </si>
+  <si>
+    <t>Li Tian-Bao, 天津大学</t>
+  </si>
+  <si>
+    <t>Liu An-An, 天津大学</t>
+  </si>
+  <si>
+    <t>Song Dan, 天津大学</t>
+  </si>
+  <si>
+    <t>Li Wen-Hui, 天津大学</t>
+  </si>
+  <si>
+    <t>Li Xuan-Ya, 百度</t>
+  </si>
+  <si>
+    <t>Su Yu-Ting, 天津大学</t>
+  </si>
+  <si>
+    <t>Liu Zhonghua, 浙江海洋大学</t>
+  </si>
+  <si>
+    <t>Ou Weihua, 贵州师范大学</t>
+  </si>
+  <si>
+    <t>Zhang Kaibing, 西安工业大学</t>
+  </si>
+  <si>
+    <t>Xiong Hao, 麦考瑞大学</t>
+  </si>
+  <si>
+    <t>Shu Xinyao, 南京信息工程大学</t>
+  </si>
+  <si>
+    <t>Yan Shiyang, 巴黎萨克雷大学</t>
+  </si>
+  <si>
+    <t>Lu Zhenyu, 南京信息工程大学</t>
+  </si>
+  <si>
+    <t>Wang Xinshao, 巅峰 AI</t>
+  </si>
+  <si>
+    <t>Xie Yuan, 华东师范大学</t>
+  </si>
+  <si>
+    <t>Xu Yuecong, 新加坡科研局</t>
+  </si>
+  <si>
+    <t>Yang Jianfei, 南洋理工大学</t>
+  </si>
+  <si>
+    <t>Cao Haozhi, 南洋理工大学</t>
+  </si>
+  <si>
+    <t>Wu Keyu, 新加坡科研局</t>
+  </si>
+  <si>
+    <t>Wu Min, 新加坡科研局</t>
+  </si>
+  <si>
+    <t>Li Zhengguo, 新加坡科研局</t>
+  </si>
+  <si>
+    <t>Chen Zhenghua, 新加坡科研局</t>
+  </si>
+  <si>
+    <t>Jin Ruibing, 新加坡科研局</t>
+  </si>
+  <si>
+    <t>Cui Wei, 新加坡科研局</t>
+  </si>
+  <si>
+    <t>Cao Zhiguang, 新加坡科研局</t>
+  </si>
+  <si>
+    <t>Li Xiaoli, 新加坡科研局</t>
+  </si>
+  <si>
+    <t>Li Peixia, 悉尼大学</t>
+  </si>
+  <si>
+    <t>Chen Boyu, 悉尼大学</t>
+  </si>
+  <si>
+    <t>Bai Lei, 上海人工智能实验室</t>
+  </si>
+  <si>
+    <t>Qiao Lei, 商汤集团有限公司</t>
+  </si>
+  <si>
+    <t>Li Bo, 商汤集团有限公司</t>
+  </si>
+  <si>
+    <t>Ouyang Wanli, 悉尼大学</t>
+  </si>
+  <si>
+    <t>Zhou Jiazhong, 南京信息工程大学</t>
+  </si>
+  <si>
+    <t>Tian Qing, 南京信息工程大学</t>
+  </si>
+  <si>
+    <t>Lu Zhanghu, 南京信息工程大学</t>
+  </si>
+  <si>
+    <t>Xu Shan, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Zhang Huaidong, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Xu Xuemiao, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Hu Xiaowei,</t>
+  </si>
+  <si>
+    <t>Xu Yangyang, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Dai Liangui,</t>
+  </si>
+  <si>
+    <t>Choi Kup-Sze,</t>
+  </si>
+  <si>
+    <t>Heng Pheng-Ann,</t>
+  </si>
+  <si>
+    <t>Cai Yuxiang, 浙江大学</t>
+  </si>
+  <si>
+    <t>Xi Meng, 浙江大学</t>
+  </si>
+  <si>
+    <t>Shang Yongheng, 浙江大学</t>
+  </si>
+  <si>
+    <t>Yin Jianwei, 浙江大学</t>
+  </si>
+  <si>
+    <t>Ren Yu, 中国科学院</t>
+  </si>
+  <si>
+    <t>Cong Yang, 中国科学院</t>
+  </si>
+  <si>
+    <t>Dong Jiahua, 中国科学院</t>
+  </si>
+  <si>
+    <t>Sun Gan, 中国科学院</t>
+  </si>
+  <si>
+    <t>Zhu Yanan, 南京信息工程大学</t>
+  </si>
+  <si>
+    <t>Sun Heyang, 南京信息工程大学</t>
+  </si>
+  <si>
+    <t>Chen Songcan, 南京航空航天大学</t>
+  </si>
+  <si>
+    <t>Yin Hujun, 曼彻斯特大学</t>
+  </si>
+  <si>
+    <t>Nie Jie, 中国海洋大学</t>
+  </si>
+  <si>
+    <t>Zhang Ting, 天津大学</t>
+  </si>
+  <si>
+    <t>Li Tianbao, 天津大学</t>
+  </si>
+  <si>
+    <t>Yu Shusong, 中国海洋大学</t>
+  </si>
+  <si>
+    <t>Li Xuanya, 百度</t>
+  </si>
+  <si>
+    <t>Wei Zhiqiang, 中国海洋大学</t>
+  </si>
+  <si>
+    <t>Zhang Lei, 广东石油化工学院</t>
+  </si>
+  <si>
+    <t>Zuo Liyun, 广东石油化工学院</t>
+  </si>
+  <si>
+    <t>Wang Baoyan, 广东石油化工学院</t>
+  </si>
+  <si>
+    <t>Li Xin, 广东石油化工学院</t>
+  </si>
+  <si>
+    <t>Zhen Xiantong, 广东石油化工学院</t>
+  </si>
+  <si>
+    <t>Fang Fen, 新加坡科研局</t>
+  </si>
+  <si>
+    <t>Xu Qianli, 新加坡科研局</t>
+  </si>
+  <si>
+    <t>Cheng Yi, 新加坡科研局</t>
+  </si>
+  <si>
+    <t>Sun Ying, 新加坡科研局</t>
+  </si>
+  <si>
+    <t>Lim Joo-Hwee, 新加坡科研局</t>
+  </si>
+  <si>
+    <t>Meng Min, 广东工业大学</t>
+  </si>
+  <si>
+    <t>Wu Zhuanghui, 广东工业大学</t>
+  </si>
+  <si>
+    <t>Liang Tianyou, 广东工业大学</t>
+  </si>
+  <si>
+    <t>Yu Jun, 杭州电子科技大学</t>
+  </si>
+  <si>
+    <t>Wu Jigang, 广东工业大学</t>
+  </si>
+  <si>
+    <t>Li Huafeng, 昆明理工大学</t>
+  </si>
+  <si>
+    <t>Xu Kaixiong, 昆明理工大学</t>
+  </si>
+  <si>
+    <t>Li Jinxing, 哈尔滨工业大学</t>
+  </si>
+  <si>
+    <t>Yu Zhengtao, 昆明理工大学</t>
+  </si>
+  <si>
+    <t>Jin Cong, 华中师范大学</t>
+  </si>
+  <si>
+    <t>Wang Wei, 大连理工大学</t>
+  </si>
+  <si>
+    <t>Li Baopu, 百度</t>
+  </si>
+  <si>
+    <t>Wang Mengzhu, 国防科技大学（中国）</t>
+  </si>
+  <si>
+    <t>Nie Feiping, 西北工业大学</t>
+  </si>
+  <si>
+    <t>Wang Zhihui, 大连理工大学</t>
+  </si>
+  <si>
+    <t>Li Haojie, 大连理工大学</t>
+  </si>
+  <si>
+    <t>Tian Yingjie, 中国科学院</t>
+  </si>
+  <si>
+    <t>Zhu Siyu, 中国科学院</t>
+  </si>
+  <si>
+    <t>Zuo Yukun, 中国科学院</t>
+  </si>
+  <si>
+    <t>Yao Hantao, 中国科学院</t>
+  </si>
+  <si>
+    <t>Zhuang Liansheng, 中国科学院</t>
+  </si>
+  <si>
+    <t>Xu Changsheng, 中国科学院</t>
+  </si>
+  <si>
+    <t>Han Honggui, 北京工业大学</t>
+  </si>
+  <si>
+    <t>Liu Hongxu, 北京工业大学</t>
+  </si>
+  <si>
+    <t>Yang Cuili, 北京工业大学</t>
+  </si>
+  <si>
+    <t>Qiao Junfei, 北京工业大学</t>
+  </si>
+  <si>
+    <t>Yang Yunsheng, 中国人民解放军总医院</t>
+  </si>
+  <si>
+    <t>Xu Xiaowei, 阿肯色大学系统</t>
+  </si>
+  <si>
+    <t>Ding Zhengming,</t>
   </si>
 </sst>
 </file>
@@ -1570,716 +1439,620 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BC6B89-48C5-431F-A1BB-ED09F0C2EA8C}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="D7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="F7" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="D8" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="D9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="E9" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="F11" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="B13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C13" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="B14" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="C14" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="G14" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="E15" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="F15" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="G15" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="B16" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C16" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D16" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E16" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="F16" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B17" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C17" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="B18" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="C18" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="D18" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E18" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F18" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="G18" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="H18" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="1" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B19" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C19" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D19" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B20" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="C20" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="D20" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C21" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D21" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E21" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="1" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B22" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C22" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D22" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E22" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="F22" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="B23" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="C23" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="D23" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="E23" t="s">
         <v>120</v>
       </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B24" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C24" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D24" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="E24" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="B25" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="C25" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="D25" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="E25" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="1" t="s">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="B26" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="C26" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D26" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="1" t="s">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B28" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C28" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D28" t="s">
         <v>139</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E28" t="s">
         <v>140</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F28" t="s">
         <v>141</v>
       </c>
-      <c r="G32" s="1" t="s">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B29" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="B30" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="C30" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="D30" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>148</v>
       </c>
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>150</v>
-      </c>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>155</v>
-      </c>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>161</v>
-      </c>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>166</v>
-      </c>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>171</v>
-      </c>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
@@ -2292,158 +2065,84 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>165</v>
-      </c>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>171</v>
-      </c>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>184</v>
-      </c>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>171</v>
-      </c>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>190</v>
-      </c>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>193</v>
-      </c>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>196</v>
-      </c>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>197</v>
-      </c>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>

--- a/author_title_input.xlsx
+++ b/author_title_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24761\PycharmProjects\pythonProject7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3369CA7F-BD2E-434D-AC18-171C22D38E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78944F80-D2B7-4E73-AF71-768D093241E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D324918D-E3A1-4CCE-B36C-4E3A70C9A833}"/>
   </bookViews>
@@ -20,471 +20,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="155">
-  <si>
-    <t>Chang Dongliang, 北京邮电大学</t>
-  </si>
-  <si>
-    <t>Sain Aneeshan, 萨里大学</t>
-  </si>
-  <si>
-    <t>Ma Zhanyu, 北京邮电大学</t>
-  </si>
-  <si>
-    <t>Song Yi-Zhe, 萨里大学</t>
-  </si>
-  <si>
-    <t>Wang Ruiping, 中国科学院</t>
-  </si>
-  <si>
-    <t>Guo Jun, 北京邮电大学</t>
-  </si>
-  <si>
-    <t>Cui Chaoran, 山东财经大学</t>
-  </si>
-  <si>
-    <t>Meng Fan'an, 山东财经大学</t>
-  </si>
-  <si>
-    <t>Zhang Chunyun, 山东财经大学</t>
-  </si>
-  <si>
-    <t>Liu Ziyi, 山东财经大学</t>
-  </si>
-  <si>
-    <t>Zhu Lei, 山东师范大学</t>
-  </si>
-  <si>
-    <t>Gong Shuai, 山东财经大学</t>
-  </si>
-  <si>
-    <t>Lin Xue, 山东财经大学</t>
-  </si>
-  <si>
-    <t>Liu Youfa, 武汉大学</t>
-  </si>
-  <si>
-    <t>Du Bo, 武汉大学</t>
-  </si>
-  <si>
-    <t>Chen Yongyong, 哈尔滨工业大学</t>
-  </si>
-  <si>
-    <t>Zhang Lefei, 武汉大学</t>
-  </si>
-  <si>
-    <t>Lin Yu-e, 安徽理工大学</t>
-  </si>
-  <si>
-    <t>Liu Erhu, 安徽理工大学</t>
-  </si>
-  <si>
-    <t>Liang Xingzhu, 安徽理工大学</t>
-  </si>
-  <si>
-    <t>Chen Miaomiao, 安徽理工大学</t>
-  </si>
-  <si>
-    <t>Yan Xinyun, 金陵科技学院</t>
-  </si>
-  <si>
-    <t>He Chunmei, 湘潭大学</t>
-  </si>
-  <si>
-    <t>Li Xiuguang, 湘潭大学</t>
-  </si>
-  <si>
-    <t>Xia Yue, 湘潭大学</t>
-  </si>
-  <si>
-    <t>Tang Jing, 湘潭大学</t>
-  </si>
-  <si>
-    <t>Yang Jie, 湘潭大学</t>
-  </si>
-  <si>
-    <t>Ye Zhengchun, 湘潭大学</t>
-  </si>
-  <si>
-    <t>Ding Li, 西北工业大学</t>
-  </si>
-  <si>
-    <t>Song Xiang, 西安交通大学</t>
-  </si>
-  <si>
-    <t>He Yuhang, 西安交通大学</t>
-  </si>
-  <si>
-    <t>Wang Changxin, 西安交通大学</t>
-  </si>
-  <si>
-    <t>Dong Songlin, 西安交通大学</t>
-  </si>
-  <si>
-    <t>Wei Xing, 西安交通大学</t>
-  </si>
-  <si>
-    <t>Gong Yihong, 西安交通大学</t>
-  </si>
-  <si>
-    <t>Liu Xianyuan, 中国科学院</t>
-  </si>
-  <si>
-    <t>Zhou Shuo, 谢菲尔德大学</t>
-  </si>
-  <si>
-    <t>Lei Tao, 中国科学院</t>
-  </si>
-  <si>
-    <t>Jiang Ping, 中国科学院</t>
-  </si>
-  <si>
-    <t>Chen Zhixiang, 谢菲尔德大学</t>
-  </si>
-  <si>
-    <t>Lu Haiping, 谢菲尔德大学</t>
-  </si>
-  <si>
-    <t>Li Jingwei, 中国科学院</t>
-  </si>
-  <si>
-    <t>Li Yuan, 中国科学院</t>
-  </si>
-  <si>
-    <t>Wang Huanjie, 中国科学院</t>
-  </si>
-  <si>
-    <t>Liu Chengbao, 中国科学院</t>
-  </si>
-  <si>
-    <t>Tan Jie, 中国科学院</t>
-  </si>
-  <si>
-    <t>Zhou Lihua, 电子科技大学</t>
-  </si>
-  <si>
-    <t>Xiao Siying, 电子科技大学</t>
-  </si>
-  <si>
-    <t>Ye Mao, 电子科技大学</t>
-  </si>
-  <si>
-    <t>Zhu Xiatian, 萨里大学</t>
-  </si>
-  <si>
-    <t>Li Shuaifeng, 电子科技大学</t>
-  </si>
-  <si>
-    <t>Lv Qingxuan, 中国海洋大学</t>
-  </si>
-  <si>
-    <t>Li Yuezun, 中国海洋大学</t>
-  </si>
-  <si>
-    <t>Dong Junyu, 中国海洋大学</t>
-  </si>
-  <si>
-    <t>Guo Ziqian, 中国海洋大学</t>
-  </si>
-  <si>
-    <t>Li Tian-Bao, 天津大学</t>
-  </si>
-  <si>
-    <t>Liu An-An, 天津大学</t>
-  </si>
-  <si>
-    <t>Song Dan, 天津大学</t>
-  </si>
-  <si>
-    <t>Li Wen-Hui, 天津大学</t>
-  </si>
-  <si>
-    <t>Li Xuan-Ya, 百度</t>
-  </si>
-  <si>
-    <t>Su Yu-Ting, 天津大学</t>
-  </si>
-  <si>
-    <t>Liu Zhonghua, 浙江海洋大学</t>
-  </si>
-  <si>
-    <t>Ou Weihua, 贵州师范大学</t>
-  </si>
-  <si>
-    <t>Zhang Kaibing, 西安工业大学</t>
-  </si>
-  <si>
-    <t>Xiong Hao, 麦考瑞大学</t>
-  </si>
-  <si>
-    <t>Shu Xinyao, 南京信息工程大学</t>
-  </si>
-  <si>
-    <t>Yan Shiyang, 巴黎萨克雷大学</t>
-  </si>
-  <si>
-    <t>Lu Zhenyu, 南京信息工程大学</t>
-  </si>
-  <si>
-    <t>Wang Xinshao, 巅峰 AI</t>
-  </si>
-  <si>
-    <t>Xie Yuan, 华东师范大学</t>
-  </si>
-  <si>
-    <t>Xu Yuecong, 新加坡科研局</t>
-  </si>
-  <si>
-    <t>Yang Jianfei, 南洋理工大学</t>
-  </si>
-  <si>
-    <t>Cao Haozhi, 南洋理工大学</t>
-  </si>
-  <si>
-    <t>Wu Keyu, 新加坡科研局</t>
-  </si>
-  <si>
-    <t>Wu Min, 新加坡科研局</t>
-  </si>
-  <si>
-    <t>Li Zhengguo, 新加坡科研局</t>
-  </si>
-  <si>
-    <t>Chen Zhenghua, 新加坡科研局</t>
-  </si>
-  <si>
-    <t>Jin Ruibing, 新加坡科研局</t>
-  </si>
-  <si>
-    <t>Cui Wei, 新加坡科研局</t>
-  </si>
-  <si>
-    <t>Cao Zhiguang, 新加坡科研局</t>
-  </si>
-  <si>
-    <t>Li Xiaoli, 新加坡科研局</t>
-  </si>
-  <si>
-    <t>Li Peixia, 悉尼大学</t>
-  </si>
-  <si>
-    <t>Chen Boyu, 悉尼大学</t>
-  </si>
-  <si>
-    <t>Bai Lei, 上海人工智能实验室</t>
-  </si>
-  <si>
-    <t>Qiao Lei, 商汤集团有限公司</t>
-  </si>
-  <si>
-    <t>Li Bo, 商汤集团有限公司</t>
-  </si>
-  <si>
-    <t>Ouyang Wanli, 悉尼大学</t>
-  </si>
-  <si>
-    <t>Zhou Jiazhong, 南京信息工程大学</t>
-  </si>
-  <si>
-    <t>Tian Qing, 南京信息工程大学</t>
-  </si>
-  <si>
-    <t>Lu Zhanghu, 南京信息工程大学</t>
-  </si>
-  <si>
-    <t>Xu Shan, 华南理工大学</t>
-  </si>
-  <si>
-    <t>Zhang Huaidong, 华南理工大学</t>
-  </si>
-  <si>
-    <t>Xu Xuemiao, 华南理工大学</t>
-  </si>
-  <si>
-    <t>Hu Xiaowei,</t>
-  </si>
-  <si>
-    <t>Xu Yangyang, 华南理工大学</t>
-  </si>
-  <si>
-    <t>Dai Liangui,</t>
-  </si>
-  <si>
-    <t>Choi Kup-Sze,</t>
-  </si>
-  <si>
-    <t>Heng Pheng-Ann,</t>
-  </si>
-  <si>
-    <t>Cai Yuxiang, 浙江大学</t>
-  </si>
-  <si>
-    <t>Xi Meng, 浙江大学</t>
-  </si>
-  <si>
-    <t>Shang Yongheng, 浙江大学</t>
-  </si>
-  <si>
-    <t>Yin Jianwei, 浙江大学</t>
-  </si>
-  <si>
-    <t>Ren Yu, 中国科学院</t>
-  </si>
-  <si>
-    <t>Cong Yang, 中国科学院</t>
-  </si>
-  <si>
-    <t>Dong Jiahua, 中国科学院</t>
-  </si>
-  <si>
-    <t>Sun Gan, 中国科学院</t>
-  </si>
-  <si>
-    <t>Zhu Yanan, 南京信息工程大学</t>
-  </si>
-  <si>
-    <t>Sun Heyang, 南京信息工程大学</t>
-  </si>
-  <si>
-    <t>Chen Songcan, 南京航空航天大学</t>
-  </si>
-  <si>
-    <t>Yin Hujun, 曼彻斯特大学</t>
-  </si>
-  <si>
-    <t>Nie Jie, 中国海洋大学</t>
-  </si>
-  <si>
-    <t>Zhang Ting, 天津大学</t>
-  </si>
-  <si>
-    <t>Li Tianbao, 天津大学</t>
-  </si>
-  <si>
-    <t>Yu Shusong, 中国海洋大学</t>
-  </si>
-  <si>
-    <t>Li Xuanya, 百度</t>
-  </si>
-  <si>
-    <t>Wei Zhiqiang, 中国海洋大学</t>
-  </si>
-  <si>
-    <t>Zhang Lei, 广东石油化工学院</t>
-  </si>
-  <si>
-    <t>Zuo Liyun, 广东石油化工学院</t>
-  </si>
-  <si>
-    <t>Wang Baoyan, 广东石油化工学院</t>
-  </si>
-  <si>
-    <t>Li Xin, 广东石油化工学院</t>
-  </si>
-  <si>
-    <t>Zhen Xiantong, 广东石油化工学院</t>
-  </si>
-  <si>
-    <t>Fang Fen, 新加坡科研局</t>
-  </si>
-  <si>
-    <t>Xu Qianli, 新加坡科研局</t>
-  </si>
-  <si>
-    <t>Cheng Yi, 新加坡科研局</t>
-  </si>
-  <si>
-    <t>Sun Ying, 新加坡科研局</t>
-  </si>
-  <si>
-    <t>Lim Joo-Hwee, 新加坡科研局</t>
-  </si>
-  <si>
-    <t>Meng Min, 广东工业大学</t>
-  </si>
-  <si>
-    <t>Wu Zhuanghui, 广东工业大学</t>
-  </si>
-  <si>
-    <t>Liang Tianyou, 广东工业大学</t>
-  </si>
-  <si>
-    <t>Yu Jun, 杭州电子科技大学</t>
-  </si>
-  <si>
-    <t>Wu Jigang, 广东工业大学</t>
-  </si>
-  <si>
-    <t>Li Huafeng, 昆明理工大学</t>
-  </si>
-  <si>
-    <t>Xu Kaixiong, 昆明理工大学</t>
-  </si>
-  <si>
-    <t>Li Jinxing, 哈尔滨工业大学</t>
-  </si>
-  <si>
-    <t>Yu Zhengtao, 昆明理工大学</t>
-  </si>
-  <si>
-    <t>Jin Cong, 华中师范大学</t>
-  </si>
-  <si>
-    <t>Wang Wei, 大连理工大学</t>
-  </si>
-  <si>
-    <t>Li Baopu, 百度</t>
-  </si>
-  <si>
-    <t>Wang Mengzhu, 国防科技大学（中国）</t>
-  </si>
-  <si>
-    <t>Nie Feiping, 西北工业大学</t>
-  </si>
-  <si>
-    <t>Wang Zhihui, 大连理工大学</t>
-  </si>
-  <si>
-    <t>Li Haojie, 大连理工大学</t>
-  </si>
-  <si>
-    <t>Tian Yingjie, 中国科学院</t>
-  </si>
-  <si>
-    <t>Zhu Siyu, 中国科学院</t>
-  </si>
-  <si>
-    <t>Zuo Yukun, 中国科学院</t>
-  </si>
-  <si>
-    <t>Yao Hantao, 中国科学院</t>
-  </si>
-  <si>
-    <t>Zhuang Liansheng, 中国科学院</t>
-  </si>
-  <si>
-    <t>Xu Changsheng, 中国科学院</t>
-  </si>
-  <si>
-    <t>Han Honggui, 北京工业大学</t>
-  </si>
-  <si>
-    <t>Liu Hongxu, 北京工业大学</t>
-  </si>
-  <si>
-    <t>Yang Cuili, 北京工业大学</t>
-  </si>
-  <si>
-    <t>Qiao Junfei, 北京工业大学</t>
-  </si>
-  <si>
-    <t>Yang Yunsheng, 中国人民解放军总医院</t>
-  </si>
-  <si>
-    <t>Xu Xiaowei, 阿肯色大学系统</t>
-  </si>
-  <si>
-    <t>Ding Zhengming,</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+  <si>
+    <t>Wang Xiaokun, 北京科技大学</t>
+  </si>
+  <si>
+    <t>Xu Yanrui, 北京科技大学</t>
+  </si>
+  <si>
+    <t>Liu Sinuo, 北京科技大学</t>
+  </si>
+  <si>
+    <t>Ren Bo,</t>
+  </si>
+  <si>
+    <t>Kosinka Jiri, 格罗宁根大学</t>
+  </si>
+  <si>
+    <t>Telea Alexandru C.,</t>
+  </si>
+  <si>
+    <t>Wang Jiamin, 北京科技大学</t>
+  </si>
+  <si>
+    <t>Cao Ge, 伊利诺伊大学系统</t>
+  </si>
+  <si>
+    <t>Peng Zhen, 伊利诺伊大学系统</t>
+  </si>
+  <si>
+    <t>Li Wei, 腾讯光子工作室群</t>
+  </si>
+  <si>
+    <t>Desbrun Mathieu, 巴黎综合理工学院</t>
+  </si>
+  <si>
+    <t>Song Chongming, 北京科技大学</t>
+  </si>
+  <si>
+    <t>Wang Tiancheng, 北京科技大学</t>
+  </si>
+  <si>
+    <t>Zhang Yalan, 北京科技大学</t>
+  </si>
+  <si>
+    <t>Chang Jian, 伯恩茅斯大学</t>
+  </si>
+  <si>
+    <t>Chen Yixin, 上海科技大学</t>
+  </si>
+  <si>
+    <t>Li Wei, 上海科技大学</t>
+  </si>
+  <si>
+    <t>Fan Rui, 上海科技大学</t>
+  </si>
+  <si>
+    <t>Liu Xiaopei, 上海科技大学</t>
+  </si>
+  <si>
+    <t>Li Wei, 法国国家信息与自动化研究所</t>
+  </si>
+  <si>
+    <t>Ma Yihui, 上海科技大学</t>
+  </si>
+  <si>
+    <t>Desbrun Mathieu, 法国国家信息与自动化研究所</t>
+  </si>
+  <si>
+    <t>Liu Daoming, 上海科技大学</t>
+  </si>
+  <si>
+    <t>Desbrun Mathieu, 上海科技大学</t>
+  </si>
+  <si>
+    <t>Huang Jin, 浙江大学</t>
+  </si>
+  <si>
+    <t>Desbrun Mathieu, 加利福尼亚理工学院</t>
+  </si>
+  <si>
+    <t>Zheng Changxi,</t>
+  </si>
+  <si>
+    <t>Gao Yang, 北京航空航天大学</t>
+  </si>
+  <si>
+    <t>Zheng Zhong, 北京航空航天大学</t>
+  </si>
+  <si>
+    <t>Li Jin, 北京航空航天大学</t>
+  </si>
+  <si>
+    <t>Li Shuai, 北京航空航天大学</t>
+  </si>
+  <si>
+    <t>Hao Aimin, 北京航空航天大学</t>
+  </si>
+  <si>
+    <t>Qin Hong, 纽约州立大学系统（SUNY）</t>
+  </si>
+  <si>
+    <t>Li Haijiang, 大连海事大学</t>
+  </si>
+  <si>
+    <t>Ren Hongxiang, 大连海事大学</t>
+  </si>
+  <si>
+    <t>Qiu Shaoyang, 大连海事大学</t>
+  </si>
+  <si>
+    <t>Wang Chang, 大连海事大学</t>
+  </si>
+  <si>
+    <t>Bai Kai, 上海科技大学</t>
+  </si>
+  <si>
+    <t>Lyu Luan, 澳门大学</t>
+  </si>
+  <si>
+    <t>Cao Wei, 澳门大学</t>
+  </si>
+  <si>
+    <t>Wu Enhua, 澳门大学</t>
+  </si>
+  <si>
+    <t>Yang Zhixin, 澳门大学</t>
+  </si>
+  <si>
+    <t>Ren Bo, 南开大学</t>
+  </si>
+  <si>
+    <t>Yang Xu-Yun, 南开大学</t>
+  </si>
+  <si>
+    <t>Lin Ming C., 马里兰大学系统</t>
+  </si>
+  <si>
+    <t>Thuerey Nils, 慕尼黑工业大学</t>
+  </si>
+  <si>
+    <t>Teschner Matthias, 弗莱堡大学</t>
+  </si>
+  <si>
+    <t>Li Chenfeng, 斯旺西大学</t>
+  </si>
+  <si>
+    <t>Yang Lipeng, 亚马逊中国投资有限公司</t>
   </si>
 </sst>
 </file>
@@ -1439,568 +1121,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BC6B89-48C5-431F-A1BB-ED09F0C2EA8C}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F7" t="s">
+      <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" t="s">
-        <v>152</v>
-      </c>
-      <c r="E32" t="s">
-        <v>153</v>
-      </c>
-      <c r="F32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>135</v>
-      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>

--- a/author_title_input.xlsx
+++ b/author_title_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24761\PycharmProjects\pythonProject7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78944F80-D2B7-4E73-AF71-768D093241E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AF9D32-901D-44A8-B978-91E27F81FB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D324918D-E3A1-4CCE-B36C-4E3A70C9A833}"/>
   </bookViews>
@@ -20,153 +20,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
-  <si>
-    <t>Wang Xiaokun, 北京科技大学</t>
-  </si>
-  <si>
-    <t>Xu Yanrui, 北京科技大学</t>
-  </si>
-  <si>
-    <t>Liu Sinuo, 北京科技大学</t>
-  </si>
-  <si>
-    <t>Ren Bo,</t>
-  </si>
-  <si>
-    <t>Kosinka Jiri, 格罗宁根大学</t>
-  </si>
-  <si>
-    <t>Telea Alexandru C.,</t>
-  </si>
-  <si>
-    <t>Wang Jiamin, 北京科技大学</t>
-  </si>
-  <si>
-    <t>Cao Ge, 伊利诺伊大学系统</t>
-  </si>
-  <si>
-    <t>Peng Zhen, 伊利诺伊大学系统</t>
-  </si>
-  <si>
-    <t>Li Wei, 腾讯光子工作室群</t>
-  </si>
-  <si>
-    <t>Desbrun Mathieu, 巴黎综合理工学院</t>
-  </si>
-  <si>
-    <t>Song Chongming, 北京科技大学</t>
-  </si>
-  <si>
-    <t>Wang Tiancheng, 北京科技大学</t>
-  </si>
-  <si>
-    <t>Zhang Yalan, 北京科技大学</t>
-  </si>
-  <si>
-    <t>Chang Jian, 伯恩茅斯大学</t>
-  </si>
-  <si>
-    <t>Chen Yixin, 上海科技大学</t>
-  </si>
-  <si>
-    <t>Li Wei, 上海科技大学</t>
-  </si>
-  <si>
-    <t>Fan Rui, 上海科技大学</t>
-  </si>
-  <si>
-    <t>Liu Xiaopei, 上海科技大学</t>
-  </si>
-  <si>
-    <t>Li Wei, 法国国家信息与自动化研究所</t>
-  </si>
-  <si>
-    <t>Ma Yihui, 上海科技大学</t>
-  </si>
-  <si>
-    <t>Desbrun Mathieu, 法国国家信息与自动化研究所</t>
-  </si>
-  <si>
-    <t>Liu Daoming, 上海科技大学</t>
-  </si>
-  <si>
-    <t>Desbrun Mathieu, 上海科技大学</t>
-  </si>
-  <si>
-    <t>Huang Jin, 浙江大学</t>
-  </si>
-  <si>
-    <t>Desbrun Mathieu, 加利福尼亚理工学院</t>
-  </si>
-  <si>
-    <t>Zheng Changxi,</t>
-  </si>
-  <si>
-    <t>Gao Yang, 北京航空航天大学</t>
-  </si>
-  <si>
-    <t>Zheng Zhong, 北京航空航天大学</t>
-  </si>
-  <si>
-    <t>Li Jin, 北京航空航天大学</t>
-  </si>
-  <si>
-    <t>Li Shuai, 北京航空航天大学</t>
-  </si>
-  <si>
-    <t>Hao Aimin, 北京航空航天大学</t>
-  </si>
-  <si>
-    <t>Qin Hong, 纽约州立大学系统（SUNY）</t>
-  </si>
-  <si>
-    <t>Li Haijiang, 大连海事大学</t>
-  </si>
-  <si>
-    <t>Ren Hongxiang, 大连海事大学</t>
-  </si>
-  <si>
-    <t>Qiu Shaoyang, 大连海事大学</t>
-  </si>
-  <si>
-    <t>Wang Chang, 大连海事大学</t>
-  </si>
-  <si>
-    <t>Bai Kai, 上海科技大学</t>
-  </si>
-  <si>
-    <t>Lyu Luan, 澳门大学</t>
-  </si>
-  <si>
-    <t>Cao Wei, 澳门大学</t>
-  </si>
-  <si>
-    <t>Wu Enhua, 澳门大学</t>
-  </si>
-  <si>
-    <t>Yang Zhixin, 澳门大学</t>
-  </si>
-  <si>
-    <t>Ren Bo, 南开大学</t>
-  </si>
-  <si>
-    <t>Yang Xu-Yun, 南开大学</t>
-  </si>
-  <si>
-    <t>Lin Ming C., 马里兰大学系统</t>
-  </si>
-  <si>
-    <t>Thuerey Nils, 慕尼黑工业大学</t>
-  </si>
-  <si>
-    <t>Teschner Matthias, 弗莱堡大学</t>
-  </si>
-  <si>
-    <t>Li Chenfeng, 斯旺西大学</t>
-  </si>
-  <si>
-    <t>Yang Lipeng, 亚马逊中国投资有限公司</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+  <si>
+    <t>He Shengfeng, 新加坡管理大学</t>
+  </si>
+  <si>
+    <t>Liu Wenxi, 福州大学</t>
+  </si>
+  <si>
+    <t>Xu Cheng, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Xu Xuemiao, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Xie Yi, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Wu Hanxiao, 华侨大学</t>
+  </si>
+  <si>
+    <t>Lin Yihong, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Zhu Jianqing, 华侨大学</t>
+  </si>
+  <si>
+    <t>Zeng Huanqiang, 华侨大学</t>
+  </si>
+  <si>
+    <t>Xie Yi, 华侨大学</t>
+  </si>
+  <si>
+    <t>Cai Weiwei, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Xu Jiajia, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Zhang Huaidong, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Yang Haoxin, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Zhang Kun, 卡内基梅隆大学</t>
+  </si>
+  <si>
+    <t>Zhang Jing, 悉尼大学</t>
+  </si>
+  <si>
+    <t>Zhao Qianqian, 华侨大学</t>
+  </si>
+  <si>
+    <t>Zhan Simin, 华侨大学</t>
+  </si>
+  <si>
+    <t>Cheng Rui, 广州航海学院</t>
+  </si>
+  <si>
+    <t>Zheng Weiying, 华南理工大学</t>
+  </si>
+  <si>
+    <t>He Shengfeng,</t>
   </si>
 </sst>
 </file>
@@ -1124,262 +1040,196 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>32</v>
-      </c>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>47</v>
-      </c>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>

--- a/author_title_input.xlsx
+++ b/author_title_input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24761\PycharmProjects\pythonProject7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24761\PycharmProjects\webscience_crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AF9D32-901D-44A8-B978-91E27F81FB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6BB3E5-3CB8-4E16-BE16-49904FAEF74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D324918D-E3A1-4CCE-B36C-4E3A70C9A833}"/>
   </bookViews>
@@ -20,69 +20,1821 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
-  <si>
-    <t>He Shengfeng, 新加坡管理大学</t>
-  </si>
-  <si>
-    <t>Liu Wenxi, 福州大学</t>
-  </si>
-  <si>
-    <t>Xu Cheng, 华南理工大学</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="605">
+  <si>
+    <t>Wang Lei, 中国科学院</t>
+  </si>
+  <si>
+    <t>Ye Cheng, 中国科学院</t>
+  </si>
+  <si>
+    <t>Chen Fang, 中国科学院</t>
+  </si>
+  <si>
+    <t>Wang Ning, 北京大学</t>
+  </si>
+  <si>
+    <t>Yu Bo, 中国科学院</t>
+  </si>
+  <si>
+    <t>Ye Cheng, 桂林电子科技大学</t>
+  </si>
+  <si>
+    <t>Wang Ning,</t>
+  </si>
+  <si>
+    <t>Li Congrong, 中国科学院</t>
+  </si>
+  <si>
+    <t>Zhang Haiying, 中国科学院</t>
+  </si>
+  <si>
+    <t>Wang Yu,</t>
+  </si>
+  <si>
+    <t>Xie Wei, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Liu Weiming, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Dai Yuan, 湘潭大学</t>
+  </si>
+  <si>
+    <t>Zhu Jianxiao, 东南大学 - 中国</t>
+  </si>
+  <si>
+    <t>Li Xu, 东南大学 - 中国</t>
+  </si>
+  <si>
+    <t>Xu Qimin, 东南大学 - 中国</t>
+  </si>
+  <si>
+    <t>He Xiang, 东南大学 - 中国</t>
+  </si>
+  <si>
+    <t>Wang Benwu, 东南大学 - 中国</t>
+  </si>
+  <si>
+    <t>Shao Zeyuan, 大连海事大学</t>
+  </si>
+  <si>
+    <t>Yin Yong, 大连海事大学</t>
+  </si>
+  <si>
+    <t>Lyu Hongguang, 大连海事大学</t>
+  </si>
+  <si>
+    <t>Soares C. Guedes, 里斯本大学</t>
+  </si>
+  <si>
+    <t>Cheng Tao, 伦敦大学</t>
+  </si>
+  <si>
+    <t>Jing Qianfeng, 大连海事大学</t>
+  </si>
+  <si>
+    <t>Yang Zhilin, 大连海事大学</t>
+  </si>
+  <si>
+    <t>Zhang Gege, 中山大学</t>
+  </si>
+  <si>
+    <t>Wang Luping, 中山大学</t>
+  </si>
+  <si>
+    <t>Chen Zengping, 中山大学</t>
+  </si>
+  <si>
+    <t>Bakirci Murat, 塔尔苏斯大学</t>
+  </si>
+  <si>
+    <t>Chaudhuri Arindam, 大湖管理学会</t>
+  </si>
+  <si>
+    <t>Yang Yi, 中国科学院</t>
+  </si>
+  <si>
+    <t>Han Xumeng, 中国科学院</t>
+  </si>
+  <si>
+    <t>Wang Kuiran, 中国科学院</t>
+  </si>
+  <si>
+    <t>Yu Xuehui, 中国科学院</t>
+  </si>
+  <si>
+    <t>Yu Wenwen, 中国科学院</t>
+  </si>
+  <si>
+    <t>Wang Zipeng, 中国科学院</t>
+  </si>
+  <si>
+    <t>Li Guorong, 中国科学院</t>
+  </si>
+  <si>
+    <t>Lu Jian, 西安工业大学</t>
+  </si>
+  <si>
+    <t>Huang Tingting, 西安工业大学</t>
+  </si>
+  <si>
+    <t>Zhang Qi,</t>
+  </si>
+  <si>
+    <t>Chen Xiaogai, 西安工业大学</t>
+  </si>
+  <si>
+    <t>Zhou Jian, 西安工业大学</t>
+  </si>
+  <si>
+    <t>Zhang Jian, 哈尔滨工程大学</t>
+  </si>
+  <si>
+    <t>Huang Wenbin, 西北工业大学</t>
+  </si>
+  <si>
+    <t>Zhuang Jiayuan, 哈尔滨工程大学</t>
+  </si>
+  <si>
+    <t>Zhang Renran, 哈尔滨工程大学</t>
+  </si>
+  <si>
+    <t>Du Xiang, 哈尔滨工程大学</t>
+  </si>
+  <si>
+    <t>Joshi Rakhi Madhukarrao, 科纳鲁·拉克斯米亚教育基金会（K.L 被认为是大学）</t>
+  </si>
+  <si>
+    <t>Rao D. S., 科纳鲁·拉克斯米亚教育基金会（K.L 被认为是大学）</t>
+  </si>
+  <si>
+    <t>Wang Hongqing, 马来西亚国民大学</t>
+  </si>
+  <si>
+    <t>Chaw Jun Kit, 马来西亚国民大学</t>
+  </si>
+  <si>
+    <t>Goh Sim Kuan, 厦门大学马来西亚分校</t>
+  </si>
+  <si>
+    <t>Shi Liantao, 深圳职业技术学院</t>
+  </si>
+  <si>
+    <t>Tin Ting Tin, 英迪国际大学</t>
+  </si>
+  <si>
+    <t>Huang Nannan, 马来西亚国民大学</t>
+  </si>
+  <si>
+    <t>Gan Hong-Seng, 西交利物浦大学</t>
+  </si>
+  <si>
+    <t>Benayad Mohamed, 哈桑二世大学（哈桑二世大学 Casablanca）</t>
+  </si>
+  <si>
+    <t>Rochd Abdelilah, 绿色能源 PK（Green Energy Pk GEP）</t>
+  </si>
+  <si>
+    <t>Houran Nouriddine, 绿色能源 PK（Green Energy Pk GEP）</t>
+  </si>
+  <si>
+    <t>Simou Mohamed Rabii, 哈桑二世大学（哈桑二世大学 Casablanca）</t>
+  </si>
+  <si>
+    <t>Maanan Mehdi, 哈桑二世大学（哈桑二世大学 Casablanca）</t>
+  </si>
+  <si>
+    <t>Rhinane Hassan, 哈桑二世大学（哈桑二世大学 Casablanca）</t>
+  </si>
+  <si>
+    <t>Shivanna Vinay Malligere, 国立阳明交通大学</t>
+  </si>
+  <si>
+    <t>Guo Jiun-In, 国立阳明交通大学</t>
+  </si>
+  <si>
+    <t>Zhang Chuan, 西南交通大学</t>
+  </si>
+  <si>
+    <t>Gao Gui, 西南交通大学</t>
+  </si>
+  <si>
+    <t>Liu Jia, DFH 卫星有限公司</t>
+  </si>
+  <si>
+    <t>Duan Dingfeng, 西南交通大学</t>
+  </si>
+  <si>
+    <t>Li Jingwen, 桂林理工大学</t>
+  </si>
+  <si>
+    <t>Wu Wei, 桂林理工大学</t>
+  </si>
+  <si>
+    <t>Zhang Dan, 桂林农业科学研究中心</t>
+  </si>
+  <si>
+    <t>Fan Dayong, 桂林农业科学研究中心</t>
+  </si>
+  <si>
+    <t>Jiang Jianwu, 桂林理工大学</t>
+  </si>
+  <si>
+    <t>Lu Yanling, 桂林理工大学</t>
+  </si>
+  <si>
+    <t>Gao Ertao, 桂林理工大学</t>
+  </si>
+  <si>
+    <t>Cheng Gong, 西北工业大学</t>
+  </si>
+  <si>
+    <t>Yuan Xiang, 西北工业大学</t>
+  </si>
+  <si>
+    <t>Yao Xiwen, 西北工业大学</t>
+  </si>
+  <si>
+    <t>Yan Kebing, 西北工业大学</t>
+  </si>
+  <si>
+    <t>Zeng Qinghua, 西北工业大学</t>
+  </si>
+  <si>
+    <t>Xie Xingxing, 西北工业大学</t>
+  </si>
+  <si>
+    <t>Han Junwei, 西北工业大学</t>
+  </si>
+  <si>
+    <t>Yao Yanji, 中国科学院</t>
+  </si>
+  <si>
+    <t>Shi Zhimin, 中国科学院</t>
+  </si>
+  <si>
+    <t>Hu Huiwen, 中国科学院</t>
+  </si>
+  <si>
+    <t>Li Jing, 云南农业大学</t>
+  </si>
+  <si>
+    <t>Wang Guocheng, 中国科学院</t>
+  </si>
+  <si>
+    <t>Liu Lintao, 中国科学院</t>
+  </si>
+  <si>
+    <t>Kong Xiaolin, 长安大学</t>
+  </si>
+  <si>
+    <t>Gao Tao, 长安大学</t>
+  </si>
+  <si>
+    <t>Chen Ting, 长安大学</t>
+  </si>
+  <si>
+    <t>Zhang Jing, 澳大利亚国立大学</t>
+  </si>
+  <si>
+    <t>Deshmukh Prashant, 印度技术学院（NIT 系统）</t>
+  </si>
+  <si>
+    <t>Majhi Sudhan, 印度科学学院（IISC）- 班加罗尔</t>
+  </si>
+  <si>
+    <t>Sahoo Upendra Kumar, 印度技术学院（NIT 系统）</t>
+  </si>
+  <si>
+    <t>Das Santos Kumar, 印度技术学院（NIT 系统）</t>
+  </si>
+  <si>
+    <t>Wang Xiao, 武汉科技大学</t>
+  </si>
+  <si>
+    <t>Tu Xingyue, 武汉科技大学</t>
+  </si>
+  <si>
+    <t>Al-Hassani Baraa, 武汉科技大学</t>
+  </si>
+  <si>
+    <t>Lin Chia-Wen, 国立清华大学</t>
+  </si>
+  <si>
+    <t>Xu Xin, 武汉科技大学</t>
+  </si>
+  <si>
+    <t>Ghaffarpasand Omid, 伯明翰大学</t>
+  </si>
+  <si>
+    <t>Almojarkesh Anwar, 创新工厂有限公司</t>
+  </si>
+  <si>
+    <t>Morris Sophie, 桑德韦尔都会自治市议会</t>
+  </si>
+  <si>
+    <t>Stephens Elizabeth, 桑德韦尔都会自治市议会</t>
+  </si>
+  <si>
+    <t>Chalabi Alaa, 创新工厂有限公司</t>
+  </si>
+  <si>
+    <t>Almojarkesh Usamah, 创新工厂有限公司</t>
+  </si>
+  <si>
+    <t>Almojarkesh Zenah, 创新工厂有限公司</t>
+  </si>
+  <si>
+    <t>Berwo Michael Abebe, 长安大学</t>
+  </si>
+  <si>
+    <t>Khan Asad, 广州大学</t>
+  </si>
+  <si>
+    <t>Fang Yong, 长安大学</t>
+  </si>
+  <si>
+    <t>Fahim Hamza, 同济大学</t>
+  </si>
+  <si>
+    <t>Javaid Shumaila, 同济大学</t>
+  </si>
+  <si>
+    <t>Mahmood Jabar, 长安大学</t>
+  </si>
+  <si>
+    <t>Abideen Zain Ul, 江苏大学</t>
+  </si>
+  <si>
+    <t>Wang Wenke, 中北大学</t>
+  </si>
+  <si>
+    <t>Hu Hongping, 中北大学</t>
+  </si>
+  <si>
+    <t>Cao Shengfang, 中北大学</t>
+  </si>
+  <si>
+    <t>Song Na, 中北大学</t>
+  </si>
+  <si>
+    <t>Liu Moyun, 华中科技大学</t>
+  </si>
+  <si>
+    <t>Chen Youping, 华中科技大学</t>
+  </si>
+  <si>
+    <t>Xie Jingming, 华中科技大学</t>
+  </si>
+  <si>
+    <t>He Lei, 华中科技大学</t>
+  </si>
+  <si>
+    <t>Zhang Yang, 湖北工业大学</t>
+  </si>
+  <si>
+    <t>Tang Jianhang, 燕山大学</t>
+  </si>
+  <si>
+    <t>Jalalzai Mohammad M., 英属哥伦比亚大学</t>
+  </si>
+  <si>
+    <t>Feng Chen, 英属哥伦比亚大学</t>
+  </si>
+  <si>
+    <t>Xiong Zehui, 新加坡科技设计大学</t>
+  </si>
+  <si>
+    <t>Zhang Yang, 南京航空航天大学</t>
+  </si>
+  <si>
+    <t>Ding Tonghe, 山东师范大学</t>
+  </si>
+  <si>
+    <t>Feng Kaili, 山东师范大学</t>
+  </si>
+  <si>
+    <t>Yan Yejin, 山东师范大学</t>
+  </si>
+  <si>
+    <t>Wei Yanjun, 山东师范大学</t>
+  </si>
+  <si>
+    <t>Li Tianping, 山东师范大学</t>
+  </si>
+  <si>
+    <t>Wang Rui, 长春科技学院</t>
+  </si>
+  <si>
+    <t>Zhao He, 长春科技学院</t>
+  </si>
+  <si>
+    <t>Xu Zhengwei, 成都理工大学</t>
+  </si>
+  <si>
+    <t>Ding Yaming, 长春科技学院</t>
+  </si>
+  <si>
+    <t>Li Guowei, 长春科技学院</t>
+  </si>
+  <si>
+    <t>Zhang Yuxin, 长春科技学院</t>
+  </si>
+  <si>
+    <t>Li Hua, 长春科技学院</t>
+  </si>
+  <si>
+    <t>Farid Annam, 巴基斯坦国立科技大学</t>
+  </si>
+  <si>
+    <t>Hussain Farhan, 巴基斯坦国立科技大学</t>
+  </si>
+  <si>
+    <t>Khan Khurram, 吉兰丹大学工程科学与技术学院</t>
+  </si>
+  <si>
+    <t>Shahzad Mohsin, 科特迪瓦伊斯兰堡大学（CUI）</t>
+  </si>
+  <si>
+    <t>Khan Uzair, 科特迪瓦伊斯兰堡大学（CUI）</t>
+  </si>
+  <si>
+    <t>Mahmood Zahid, 科特迪瓦伊斯兰堡大学（CUI）</t>
+  </si>
+  <si>
+    <t>Zhao Yang, 北京大学</t>
+  </si>
+  <si>
+    <t>Guo Peng, 北京大学</t>
+  </si>
+  <si>
+    <t>Sun Zihao, 北京大学</t>
+  </si>
+  <si>
+    <t>Chen Xiuwan, 北京大学</t>
+  </si>
+  <si>
+    <t>Gao Han, 北京大学</t>
+  </si>
+  <si>
+    <t>Ren Jingjing, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Hu Xiaowei, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Zhu Lei, 香港科技大学（广州）</t>
   </si>
   <si>
     <t>Xu Xuemiao, 华南理工大学</t>
   </si>
   <si>
-    <t>Xie Yi, 华南理工大学</t>
-  </si>
-  <si>
-    <t>Wu Hanxiao, 华侨大学</t>
-  </si>
-  <si>
-    <t>Lin Yihong, 华南理工大学</t>
-  </si>
-  <si>
-    <t>Zhu Jianqing, 华侨大学</t>
-  </si>
-  <si>
-    <t>Zeng Huanqiang, 华侨大学</t>
-  </si>
-  <si>
-    <t>Xie Yi, 华侨大学</t>
-  </si>
-  <si>
-    <t>Cai Weiwei, 华南理工大学</t>
-  </si>
-  <si>
-    <t>Xu Jiajia, 华南理工大学</t>
+    <t>Xu Yangyang,</t>
+  </si>
+  <si>
+    <t>Wang Weiming,</t>
+  </si>
+  <si>
+    <t>Deng Zijun, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Xu Shan, 华南理工大学</t>
   </si>
   <si>
     <t>Zhang Huaidong, 华南理工大学</t>
   </si>
   <si>
-    <t>Yang Haoxin, 华南理工大学</t>
-  </si>
-  <si>
-    <t>Zhang Kun, 卡内基梅隆大学</t>
-  </si>
-  <si>
-    <t>Zhang Jing, 悉尼大学</t>
-  </si>
-  <si>
-    <t>Zhao Qianqian, 华侨大学</t>
-  </si>
-  <si>
-    <t>Zhan Simin, 华侨大学</t>
-  </si>
-  <si>
-    <t>Cheng Rui, 广州航海学院</t>
-  </si>
-  <si>
-    <t>Zheng Weiying, 华南理工大学</t>
-  </si>
-  <si>
-    <t>He Shengfeng,</t>
+    <t>Hu Xiaowei,</t>
+  </si>
+  <si>
+    <t>Xu Yangyang, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Dai Liangui,</t>
+  </si>
+  <si>
+    <t>Choi Kup-Sze,</t>
+  </si>
+  <si>
+    <t>Li Cui-Jin, 重庆邮电大学</t>
+  </si>
+  <si>
+    <t>Qu Zhong, 重庆邮电大学</t>
+  </si>
+  <si>
+    <t>Wang Sheng-Ye, 重庆邮电大学</t>
+  </si>
+  <si>
+    <t>Li Shiyang, 杭州电子科技大学</t>
+  </si>
+  <si>
+    <t>Chen Jing, 杭州电子科技大学</t>
+  </si>
+  <si>
+    <t>Peng Weimin, 杭州电子科技大学</t>
+  </si>
+  <si>
+    <t>Shi Xiaoying, 杭州电子科技大学</t>
+  </si>
+  <si>
+    <t>Bu Wanghui, 同济大学</t>
+  </si>
+  <si>
+    <t>Guo Feng, 山东大学</t>
+  </si>
+  <si>
+    <t>Wang Yi, 南卡罗来纳大学系统</t>
+  </si>
+  <si>
+    <t>Qian Yu, 南卡罗来纳大学系统</t>
+  </si>
+  <si>
+    <t>Li Linfeng, 天宫大学</t>
+  </si>
+  <si>
+    <t>Su Weixing, 天宫大学</t>
+  </si>
+  <si>
+    <t>Liu Fang, 天宫大学</t>
+  </si>
+  <si>
+    <t>He Maowei, 天宫大学</t>
+  </si>
+  <si>
+    <t>Liang Xiaodan, 天宫大学</t>
+  </si>
+  <si>
+    <t>Ge Xiangyu, 北京计算机应用研究所</t>
+  </si>
+  <si>
+    <t>Yin Chao, 上海联影医疗科技股份有限公司</t>
+  </si>
+  <si>
+    <t>Zhou Qianxiang, 北京航空航天大学</t>
+  </si>
+  <si>
+    <t>Zhou Tianqing, 北京计算机应用研究所</t>
+  </si>
+  <si>
+    <t>Zhang Fang, 北京计算机应用研究所</t>
+  </si>
+  <si>
+    <t>Yang Zongrui, 北京计算机应用研究所</t>
+  </si>
+  <si>
+    <t>Fan Bingyuan, 北京计算机应用研究所</t>
+  </si>
+  <si>
+    <t>Wenkai Bi, 莫斯科物理技术学院</t>
+  </si>
+  <si>
+    <t>Ling Qin, 马来西亚理科大学</t>
+  </si>
+  <si>
+    <t>Isa Nor Ashidi Mat, 马来西亚理科大学</t>
+  </si>
+  <si>
+    <t>Lu Wanjie, 中国人民解放军信息工程大学</t>
+  </si>
+  <si>
+    <t>Lan Chaozhen, 中国人民解放军信息工程大学</t>
+  </si>
+  <si>
+    <t>Niu Chaoyang, 中国人民解放军信息工程大学</t>
+  </si>
+  <si>
+    <t>Liu Wei, 中国人民解放军信息工程大学</t>
+  </si>
+  <si>
+    <t>Lyu Liang, 中国人民解放军信息工程大学</t>
+  </si>
+  <si>
+    <t>Shi Qunshan, 中国人民解放军信息工程大学</t>
+  </si>
+  <si>
+    <t>Wang Shiju, 中国人民解放军信息工程大学</t>
+  </si>
+  <si>
+    <t>Mo Wanghao, 新疆大学</t>
+  </si>
+  <si>
+    <t>Zhang Wendong, 新疆大学</t>
+  </si>
+  <si>
+    <t>Wei Hongyang, 新疆大学</t>
+  </si>
+  <si>
+    <t>Cao Ruyi, 新疆大学</t>
+  </si>
+  <si>
+    <t>Ke Yan, 新疆大学</t>
+  </si>
+  <si>
+    <t>Luo Yiwen, 新疆大学</t>
+  </si>
+  <si>
+    <t>Braga Alex P., FEI 大学中心</t>
+  </si>
+  <si>
+    <t>Acchetta Everton C., FEI 大学中心</t>
+  </si>
+  <si>
+    <t>Rodrigues Paulo Sergio, FEI 大学中心</t>
+  </si>
+  <si>
+    <t>Fan Yu-Cheng, 国立台北科技大学</t>
+  </si>
+  <si>
+    <t>Lin Kun-Yao, 国立台北科技大学</t>
+  </si>
+  <si>
+    <t>Tsai Yen-Hsun, 国立台北科技大学</t>
+  </si>
+  <si>
+    <t>Zhang Guowei, 中国矿业大学</t>
+  </si>
+  <si>
+    <t>Yin Jiyao, 深圳市公共安全技术研究院</t>
+  </si>
+  <si>
+    <t>Deng Peng, 深圳市公共安全技术研究院</t>
+  </si>
+  <si>
+    <t>Sun Yanlong, 深圳市公共安全技术研究院</t>
+  </si>
+  <si>
+    <t>Zhou Lin, 深圳市公共安全技术研究院</t>
+  </si>
+  <si>
+    <t>Zhang Kuiyuan, 中国矿业大学</t>
+  </si>
+  <si>
+    <t>Chen Ping-Yang, 国立阳明交通大学</t>
+  </si>
+  <si>
+    <t>Hsieh Jun-Wei, 国立阳明交通大学</t>
+  </si>
+  <si>
+    <t>Gochoo Munkhjargal, 阿拉伯联合酋长国大学</t>
+  </si>
+  <si>
+    <t>Chen Yong-Sheng, 国立阳明交通大学</t>
+  </si>
+  <si>
+    <t>Akhtar Malik Javed, 塔克西拉工程技术大学</t>
+  </si>
+  <si>
+    <t>Mahum Rabbia, 塔克西拉工程技术大学</t>
+  </si>
+  <si>
+    <t>Butt Faisal Shafique, 科特迪瓦大学伊斯兰堡分校（CUI）</t>
+  </si>
+  <si>
+    <t>Amin Rashid, 查尔卡瓦尔大学</t>
+  </si>
+  <si>
+    <t>El-Sherbeeny Ahmed M., 沙特国王大学</t>
+  </si>
+  <si>
+    <t>Lee Seongkwan Mark, 阿拉伯联合酋长国大学</t>
+  </si>
+  <si>
+    <t>Shaikh Sarang,</t>
+  </si>
+  <si>
+    <t>Deshmukh Prashant, 国立技术研究所（NIT 系统）</t>
+  </si>
+  <si>
+    <t>Satyanarayana G. S. R., 国立技术研究所（NIT 系统）</t>
+  </si>
+  <si>
+    <t>Majhi Sudhan, 印度科学研究所（IISC）- 班加罗尔</t>
+  </si>
+  <si>
+    <t>Sahoo Upendra Kumar, 国立技术研究所（NIT 系统）</t>
+  </si>
+  <si>
+    <t>Das Santos Kumar, 国立技术研究所（NIT 系统）</t>
+  </si>
+  <si>
+    <t>Luo Tong, 江苏大学</t>
+  </si>
+  <si>
+    <t>Wang Hai, 江苏大学</t>
+  </si>
+  <si>
+    <t>Cai Yingfeng, 江苏大学</t>
+  </si>
+  <si>
+    <t>Chen Long, 江苏大学</t>
+  </si>
+  <si>
+    <t>Wang Kuan, 江苏大学</t>
+  </si>
+  <si>
+    <t>Yu Yijie, 江苏大学</t>
+  </si>
+  <si>
+    <t>Li Yongbo, 西北工业大学</t>
+  </si>
+  <si>
+    <t>Du Xiaoqiang, 巴黎综合理工大学</t>
+  </si>
+  <si>
+    <t>Wang Xianzhi, 巴黎综合理工大学</t>
+  </si>
+  <si>
+    <t>Si Shubin, 巴黎综合理工大学</t>
+  </si>
+  <si>
+    <t>Shen Yiyang, 南京航空航天大学</t>
+  </si>
+  <si>
+    <t>Wang Yongzhen, 南京航空航天大学</t>
+  </si>
+  <si>
+    <t>Wei Mingqiang, 南京航空航天大学</t>
+  </si>
+  <si>
+    <t>Chen Honghua, 南京航空航天大学</t>
+  </si>
+  <si>
+    <t>Xie Haoran, 岭南大学</t>
+  </si>
+  <si>
+    <t>Cheng Gary, 香港教育大学 (EdUHK)</t>
+  </si>
+  <si>
+    <t>Wang Fu Lee, 香港都会大学</t>
+  </si>
+  <si>
+    <t>Han Yufei, 北京理工大学</t>
+  </si>
+  <si>
+    <t>Li Hai, 北京理工大学</t>
+  </si>
+  <si>
+    <t>Hou Shujuan, 北京理工大学</t>
+  </si>
+  <si>
+    <t>Dai Yuan, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Liu Ruikang, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Zheng Zhongxing, 华南理工大学</t>
+  </si>
+  <si>
+    <t>Long Kejun, 长沙理工大学</t>
+  </si>
+  <si>
+    <t>Wang Liang, 广东珠三角城际铁路有限公司</t>
+  </si>
+  <si>
+    <t>Zhou Wei, 东南大学-中国</t>
+  </si>
+  <si>
+    <t>Liu Yuqing, 东南大学-中国</t>
+  </si>
+  <si>
+    <t>Wang Chen, 东南大学-中国</t>
+  </si>
+  <si>
+    <t>Zhan Yunfei, 东南大学-中国</t>
+  </si>
+  <si>
+    <t>Dai Yulu, 东南大学-中国</t>
+  </si>
+  <si>
+    <t>Wang Ruiyu, 东南大学-中国</t>
+  </si>
+  <si>
+    <t>Pavel Monirul Islam, 马来西亚国民大学</t>
+  </si>
+  <si>
+    <t>Tan Siok Yee, 马来西亚国民大学</t>
+  </si>
+  <si>
+    <t>Abdullah Azizi, 马来西亚国民大学</t>
+  </si>
+  <si>
+    <t>Zhang Xunxun, 西安建筑科技大学</t>
+  </si>
+  <si>
+    <t>Peng Lang, 西安建筑科技大学</t>
+  </si>
+  <si>
+    <t>Lu Xiaoyu, 西安建筑科技大学</t>
+  </si>
+  <si>
+    <t>Haq N. U., 巴基斯坦国立科技大学</t>
+  </si>
+  <si>
+    <t>Fraz M. M., 巴基斯坦国立科技大学</t>
+  </si>
+  <si>
+    <t>Hashmi T. S., 巴基斯坦国立科技大学</t>
+  </si>
+  <si>
+    <t>Shahzad M., 巴基斯坦国立科技大学</t>
+  </si>
+  <si>
+    <t>Maity Sourajit, 贾达普布尔大学</t>
+  </si>
+  <si>
+    <t>Bhattacharyya Avirup, 贾达普布尔大学</t>
+  </si>
+  <si>
+    <t>Singh Pawan Kumar, 贾达普布尔大学</t>
+  </si>
+  <si>
+    <t>Kumar Munish, 旁遮普邦拉杰特辛格国王理工大学</t>
+  </si>
+  <si>
+    <t>Sarkar Ram, 贾达普布尔大学</t>
+  </si>
+  <si>
+    <t>Cui Zhihan, 汕头大学</t>
+  </si>
+  <si>
+    <t>Huang Boyu, 汕头大学</t>
+  </si>
+  <si>
+    <t>Dou Haowen, 汕头大学</t>
+  </si>
+  <si>
+    <t>Cheng Yan, 汕头大学</t>
+  </si>
+  <si>
+    <t>Guan Jitian, 汕头大学</t>
+  </si>
+  <si>
+    <t>Zhou Teng, 汕头大学</t>
+  </si>
+  <si>
+    <t>Bouyahia Zied, 佐法尔大学</t>
+  </si>
+  <si>
+    <t>Haddad Hedi, 佐法尔大学</t>
+  </si>
+  <si>
+    <t>Derrode Stephane, 法国国家科学研究中心</t>
+  </si>
+  <si>
+    <t>Pieczynski Wojciech, 法国国立高等矿业电信学校联盟</t>
+  </si>
+  <si>
+    <t>Tian Daxin, 北京航空航天大学</t>
+  </si>
+  <si>
+    <t>Lin Chunmian, 北京航空航天大学</t>
+  </si>
+  <si>
+    <t>Zhou Jianshan, 北京航空航天大学</t>
+  </si>
+  <si>
+    <t>Duan Xuting, 北京航空航天大学</t>
+  </si>
+  <si>
+    <t>Cao Yue, 北京航空航天大学</t>
+  </si>
+  <si>
+    <t>Zhao Dezong, 拉夫堡大学</t>
+  </si>
+  <si>
+    <t>Cao Dongpu, 滑铁卢大学</t>
+  </si>
+  <si>
+    <t>Li Jianfang, 湖南大学</t>
+  </si>
+  <si>
+    <t>Xiao Degui, 湖南大学</t>
+  </si>
+  <si>
+    <t>Yang Qiuwei, 湖南大学</t>
+  </si>
+  <si>
+    <t>Liu Yazhou, 南京理工大学</t>
+  </si>
+  <si>
+    <t>Chen Yuliang, 南京理工大学</t>
+  </si>
+  <si>
+    <t>Lasang Pongsak, 松下</t>
+  </si>
+  <si>
+    <t>Sun Quansen, 南京理工大学</t>
+  </si>
+  <si>
+    <t>Trabelsi Rim, 诺曼底大学</t>
+  </si>
+  <si>
+    <t>Khemmar Redouane, 诺曼底大学</t>
+  </si>
+  <si>
+    <t>Decoux Benoit, 诺曼底大学</t>
+  </si>
+  <si>
+    <t>Ertaud Jean-Yves, 诺曼底大学</t>
+  </si>
+  <si>
+    <t>Butteau Remi, 诺曼底大学</t>
+  </si>
+  <si>
+    <t>Su Ziyi, 南京理工大学</t>
+  </si>
+  <si>
+    <t>Liu Qingchao, 江苏大学</t>
+  </si>
+  <si>
+    <t>Zhao Chunxia, 南京理工大学</t>
+  </si>
+  <si>
+    <t>Sun Fengming, 南京理工大学</t>
+  </si>
+  <si>
+    <t>Nie Jiangtian, 南洋理工大学</t>
+  </si>
+  <si>
+    <t>Zhao Jun, 南洋理工大学</t>
+  </si>
+  <si>
+    <t>Niyato Dusit, 南洋理工大学</t>
+  </si>
+  <si>
+    <t>Li Keqiang, 清华大学</t>
+  </si>
+  <si>
+    <t>Xiong Hui, 清华大学</t>
+  </si>
+  <si>
+    <t>Liu Jinxin, 清华大学</t>
+  </si>
+  <si>
+    <t>Xu Qing, 清华大学</t>
+  </si>
+  <si>
+    <t>Wang Jianqiang, 清华大学</t>
+  </si>
+  <si>
+    <t>Chen Guang, 同济大学</t>
+  </si>
+  <si>
+    <t>Wang Haitao, 同济大学</t>
+  </si>
+  <si>
+    <t>Chen Kai, 同济大学</t>
+  </si>
+  <si>
+    <t>Li Zhijun, 中国科学院</t>
+  </si>
+  <si>
+    <t>Song Zida, 同济大学</t>
+  </si>
+  <si>
+    <t>Liu Yinlong, 慕尼黑工业大学</t>
+  </si>
+  <si>
+    <t>Chen Wenkai, 上海交通大学</t>
+  </si>
+  <si>
+    <t>Guo Feng, 南卡罗来纳大学系统</t>
+  </si>
+  <si>
+    <t>Jiang Zhuocheng, 南卡罗来纳大学系统</t>
+  </si>
+  <si>
+    <t>Chen Chen, 佛罗里达州立大学系统</t>
+  </si>
+  <si>
+    <t>Li Xiaomei, 重庆大学</t>
+  </si>
+  <si>
+    <t>Xie Zhijiang, 重庆大学</t>
+  </si>
+  <si>
+    <t>Deng Xiong, 重庆大学</t>
+  </si>
+  <si>
+    <t>Wu Yanxue, 重庆大学</t>
+  </si>
+  <si>
+    <t>Pi Yangjun, 重庆大学</t>
+  </si>
+  <si>
+    <t>Zhang Xun Xun, 国立实验教学示范中心土木工程虚拟仿真</t>
+  </si>
+  <si>
+    <t>Lu Xiao Yu, 国立实验教学示范中心土木工程虚拟仿真</t>
+  </si>
+  <si>
+    <t>Peng Lang, 国立实验教学示范中心土木工程虚拟仿真</t>
+  </si>
+  <si>
+    <t>Zhu Yuxin, 西南交通大学</t>
+  </si>
+  <si>
+    <t>Liu Wenbo, 西南交通大学</t>
+  </si>
+  <si>
+    <t>Yan Fei, 西南交通大学</t>
+  </si>
+  <si>
+    <t>Li Jun, 中国电子产品可靠性与环境试验研究所</t>
+  </si>
+  <si>
+    <t>Chen Junying, 西安建筑科技大学</t>
+  </si>
+  <si>
+    <t>Liu Shipeng, 西安建筑科技大学</t>
+  </si>
+  <si>
+    <t>Zhao Liang, 西安建筑科技大学</t>
+  </si>
+  <si>
+    <t>Chen Dengfeng, 西安建筑科技大学</t>
+  </si>
+  <si>
+    <t>Zhang Weihua, 西安建筑科技大学</t>
+  </si>
+  <si>
+    <t>Zhao Liquan, 东北电力大学</t>
+  </si>
+  <si>
+    <t>Wang Leilei, 东北电力大学</t>
+  </si>
+  <si>
+    <t>Jia Yanfei, 北华大学</t>
+  </si>
+  <si>
+    <t>Cui Ying, 广东省电力局</t>
+  </si>
+  <si>
+    <t>Liang Haoxiang, 长安大学</t>
+  </si>
+  <si>
+    <t>Song Huansheng, 长安大学</t>
+  </si>
+  <si>
+    <t>Yun Xu, 长安大学</t>
+  </si>
+  <si>
+    <t>Sun Shijie, 长安大学</t>
+  </si>
+  <si>
+    <t>Wang Yingxuan, 长安大学</t>
+  </si>
+  <si>
+    <t>Zhang Zhaoyang, 长安大学</t>
+  </si>
+  <si>
+    <t>Wang Ziyue, 长春科技学院</t>
+  </si>
+  <si>
+    <t>Wang Chi, 长春科技学院</t>
+  </si>
+  <si>
+    <t>Li Qiang, 长春科技学院</t>
+  </si>
+  <si>
+    <t>Liu Chenghuan, 西澳大利亚大学</t>
+  </si>
+  <si>
+    <t>Huynh Du Q., 西澳大利亚大学</t>
+  </si>
+  <si>
+    <t>Sun Yuchao, 西澳大利亚大学</t>
+  </si>
+  <si>
+    <t>Reynolds Mark, 西澳大利亚大学</t>
+  </si>
+  <si>
+    <t>Atkinson Steve, 策略与传播</t>
+  </si>
+  <si>
+    <t>Zhou Changxin, 南京理工大学</t>
+  </si>
+  <si>
+    <t>Lasang Pongsak, 新加坡松下研发中心</t>
+  </si>
+  <si>
+    <t>Chu Wenbo, 国家创新中心智能网联汽车</t>
+  </si>
+  <si>
+    <t>Wuniri Qiqige, 国家创新中心智能网联汽车</t>
+  </si>
+  <si>
+    <t>Du Xiaoping, 国家创新中心智能网联汽车</t>
+  </si>
+  <si>
+    <t>Xiong Qiuchi, 国家创新中心智能网联汽车</t>
+  </si>
+  <si>
+    <t>Huang Tai, 国家创新中心智能网联汽车</t>
+  </si>
+  <si>
+    <t>Li Keqiang, 国家创新中心智能网联汽车</t>
+  </si>
+  <si>
+    <t>Zhang Jin, 上海理工大学</t>
+  </si>
+  <si>
+    <t>Shi Yanjiao, 上海理工大学</t>
+  </si>
+  <si>
+    <t>Zhang Qing, 上海理工大学</t>
+  </si>
+  <si>
+    <t>Cui Liu, 上海理工大学</t>
+  </si>
+  <si>
+    <t>Chen Ying, 上海理工大学</t>
+  </si>
+  <si>
+    <t>Yi Yugen, 江西师范大学</t>
+  </si>
+  <si>
+    <t>Wu Xin, 青岛大学</t>
+  </si>
+  <si>
+    <t>Li Wei, 西安电子科技大学</t>
+  </si>
+  <si>
+    <t>Hong Danfeng,</t>
+  </si>
+  <si>
+    <t>Tao Ran,</t>
+  </si>
+  <si>
+    <t>Du Qian,</t>
+  </si>
+  <si>
+    <t>Galvao Luiz G., 布鲁内尔大学</t>
+  </si>
+  <si>
+    <t>Abbod Maysam, 布鲁内尔大学</t>
+  </si>
+  <si>
+    <t>Kalganova Tatiana, 布鲁内尔大学</t>
+  </si>
+  <si>
+    <t>Palade Vasile, 考文垂大学</t>
+  </si>
+  <si>
+    <t>Huda Md Nazmul, 布鲁内尔大学</t>
+  </si>
+  <si>
+    <t>Singh Divya, 贝拿勒斯印度教大学（BHU）</t>
+  </si>
+  <si>
+    <t>Srivastava Rajeev, 贝拿勒斯印度教大学（BHU）</t>
+  </si>
+  <si>
+    <t>Liang Qi, 广东财经大学</t>
+  </si>
+  <si>
+    <t>Zhou Liming, 河南大学</t>
+  </si>
+  <si>
+    <t>Zheng Chang, 河南大学</t>
+  </si>
+  <si>
+    <t>Yan Haoxin, 河南大学</t>
+  </si>
+  <si>
+    <t>Zuo Xianyu, 河南大学</t>
+  </si>
+  <si>
+    <t>Qiao Baojun, 河南大学</t>
+  </si>
+  <si>
+    <t>Zhou Bing, 河南大学</t>
+  </si>
+  <si>
+    <t>Fan Minghu, 河南大学</t>
+  </si>
+  <si>
+    <t>Li Xungen, 杭州电子科技大学</t>
+  </si>
+  <si>
+    <t>Men Feifei, 杭州电子科技大学</t>
+  </si>
+  <si>
+    <t>Lv Shuaishuai, 杭州电子科技大学</t>
+  </si>
+  <si>
+    <t>Jiang Xiao, 杭州电子科技大学</t>
+  </si>
+  <si>
+    <t>Pan Mian, 杭州电子科技大学</t>
+  </si>
+  <si>
+    <t>Ma Qi, 杭州电子科技大学</t>
+  </si>
+  <si>
+    <t>Yu Haibin, 杭州电子科技大学</t>
+  </si>
+  <si>
+    <t>Shi Pengfei, 吉林大学</t>
+  </si>
+  <si>
+    <t>Jiang Qigang, 吉林大学</t>
+  </si>
+  <si>
+    <t>Shi Chao, 吉林大学</t>
+  </si>
+  <si>
+    <t>Xi Jing, 吉林大学</t>
+  </si>
+  <si>
+    <t>Tao Guofang, 吉林大学</t>
+  </si>
+  <si>
+    <t>Zhang Sen, 吉林大学</t>
+  </si>
+  <si>
+    <t>Zhang Zhenchao, 吉林大学</t>
+  </si>
+  <si>
+    <t>Yin Guanxiang, 华东交通大学</t>
+  </si>
+  <si>
+    <t>Yu Meng, 华东交通大学</t>
+  </si>
+  <si>
+    <t>Wang Meng, 华东交通大学</t>
+  </si>
+  <si>
+    <t>Hu Yong, 江西交通职业技术学院</t>
+  </si>
+  <si>
+    <t>Zhang Yuejin, 华东交通大学</t>
+  </si>
+  <si>
+    <t>Zhao Min, 重庆大学</t>
+  </si>
+  <si>
+    <t>Zhong Yuan, 重庆大学</t>
+  </si>
+  <si>
+    <t>Sun Dihua, 重庆大学</t>
+  </si>
+  <si>
+    <t>Nguyen Hoanh, 胡志明市工业大学</t>
+  </si>
+  <si>
+    <t>Wang Kun, 中国民航大学</t>
+  </si>
+  <si>
+    <t>Liu Maozhen, 中国民航大学</t>
+  </si>
+  <si>
+    <t>Taheri Tajar Alireza, 布阿里·萨那大学</t>
+  </si>
+  <si>
+    <t>Ramazani Abbas, 布阿里·萨那大学</t>
+  </si>
+  <si>
+    <t>Mansoorizadeh Muharram, 布阿里·萨那大学</t>
+  </si>
+  <si>
+    <t>Wang Yueming, 内蒙古科技大学</t>
+  </si>
+  <si>
+    <t>Li Zhenru, 内蒙古科技大学</t>
+  </si>
+  <si>
+    <t>Fang Liangrui, 内蒙古科技大学</t>
+  </si>
+  <si>
+    <t>Li Qi, 内蒙古科技大学</t>
+  </si>
+  <si>
+    <t>Yang Yanni, 长安大学</t>
+  </si>
+  <si>
+    <t>Zhang Wentao, 长安大学</t>
+  </si>
+  <si>
+    <t>Chen Yan, 长安大学</t>
+  </si>
+  <si>
+    <t>Rakal Lionel, 长安大学</t>
+  </si>
+  <si>
+    <t>Ghosh Rajib, 印度技术学院系统</t>
+  </si>
+  <si>
+    <t>Chen Song-Lu, 北京科技大学</t>
+  </si>
+  <si>
+    <t>Tian Shu, 北京科技大学</t>
+  </si>
+  <si>
+    <t>Ma Jia-Wei, 北京科技大学</t>
+  </si>
+  <si>
+    <t>Liu Qi, 北京科技大学</t>
+  </si>
+  <si>
+    <t>Yang Chun, 北京科技大学</t>
+  </si>
+  <si>
+    <t>Chen Feng, 北京科技大学</t>
+  </si>
+  <si>
+    <t>Yin Xu-Cheng, 北京科技大学</t>
+  </si>
+  <si>
+    <t>Ke Xiao, 福州大学</t>
+  </si>
+  <si>
+    <t>Li Jianping, 福州大学</t>
+  </si>
+  <si>
+    <t>Nikishin Igor, 莫斯科罗蒙诺索夫国立大学</t>
+  </si>
+  <si>
+    <t>Dulimov Ruslan, 维斯梅有限责任公司</t>
+  </si>
+  <si>
+    <t>Skryabin Gleb, NN 布洛欣国家医学研究肿瘤学中心</t>
+  </si>
+  <si>
+    <t>Galetsky Sergey, NN 布洛欣国家医学研究肿瘤学中心</t>
+  </si>
+  <si>
+    <t>Tchevkina Elena, NN 布洛欣国家医学研究肿瘤学中心</t>
+  </si>
+  <si>
+    <t>Bagrov Dmitry, 莫斯科罗蒙诺索夫国立大学</t>
+  </si>
+  <si>
+    <t>Zhou Ying, 西北工业大学</t>
+  </si>
+  <si>
+    <t>Lei Yu, 西北工业大学</t>
+  </si>
+  <si>
+    <t>Yang Shenghui, 西北工业大学</t>
+  </si>
+  <si>
+    <t>Shao Tao, 西北工业大学</t>
+  </si>
+  <si>
+    <t>Tian Dayong, 西北工业大学</t>
+  </si>
+  <si>
+    <t>Shi Jiao, 西北工业大学</t>
+  </si>
+  <si>
+    <t>Liu Qi, 北京理工大学</t>
+  </si>
+  <si>
+    <t>Li Zirui, 北京理工大学</t>
+  </si>
+  <si>
+    <t>Yuan Shihua, 北京理工大学</t>
+  </si>
+  <si>
+    <t>Zhu Yuzheng, 北京理工大学</t>
+  </si>
+  <si>
+    <t>Li Xueyuan, 北京理工大学</t>
+  </si>
+  <si>
+    <t>Bumanis Nikolajs, 拉脱维亚生命科学大学</t>
+  </si>
+  <si>
+    <t>Vitols Gatis, 我们是点点有限公司</t>
+  </si>
+  <si>
+    <t>Arhipova Irina, 我们是点点有限公司</t>
+  </si>
+  <si>
+    <t>Solmanis Egons, 我们是点点有限公司</t>
+  </si>
+  <si>
+    <t>Zhang Xinyu, 武汉科技大学</t>
+  </si>
+  <si>
+    <t>Ding Sheng, 武汉科技大学</t>
+  </si>
+  <si>
+    <t>Bin Zuraimi Muhammad Azhad, 玛拉工艺大学</t>
+  </si>
+  <si>
+    <t>Zaman Fadhlan Hafizhelmi Kamaru, 玛拉工艺大学</t>
+  </si>
+  <si>
+    <t>Tian Kun, 中国科学院</t>
+  </si>
+  <si>
+    <t>Zhou Tong, 中国科学院</t>
+  </si>
+  <si>
+    <t>Xiang Shiming, 中国科学院</t>
+  </si>
+  <si>
+    <t>Pan Chunhong, 中国科学院</t>
+  </si>
+  <si>
+    <t>Luan Tianyu, 江苏大学</t>
+  </si>
+  <si>
+    <t>Gao Hongbo, 中国科学院</t>
+  </si>
+  <si>
+    <t>Li Yicheng, 江苏大学</t>
+  </si>
+  <si>
+    <t>Sotelo Miguel Angel, 阿尔卡拉大学</t>
+  </si>
+  <si>
+    <t>Hu Xiaowei, 香港中文大学</t>
+  </si>
+  <si>
+    <t>Zhu Lei, 香港中文大学</t>
+  </si>
+  <si>
+    <t>Wang Tianyu, 香港中文大学</t>
+  </si>
+  <si>
+    <t>Fu Chi-Wing, 香港中文大学</t>
+  </si>
+  <si>
+    <t>Heng Pheng-Ann, 香港中文大学</t>
+  </si>
+  <si>
+    <t>Shen Jiaquan, 南京航空航天大学</t>
+  </si>
+  <si>
+    <t>Liu Ningzhong, 南京航空航天大学</t>
+  </si>
+  <si>
+    <t>Sun Han, 南京航空航天大学</t>
+  </si>
+  <si>
+    <t>Khazukov Kirill, 南乌拉尔国立大学</t>
+  </si>
+  <si>
+    <t>Shepelev Vladimir, 南乌拉尔国立大学</t>
+  </si>
+  <si>
+    <t>Karpeta Tatiana, 南乌拉尔国立大学</t>
+  </si>
+  <si>
+    <t>Shabiev Salavat, 南乌拉尔国立大学</t>
+  </si>
+  <si>
+    <t>Slobodin Ivan, 南乌拉尔国立大学</t>
+  </si>
+  <si>
+    <t>Charbadze Irakli, 南乌拉尔国立大学</t>
+  </si>
+  <si>
+    <t>Alferova Irina, 南乌拉尔国立大学</t>
+  </si>
+  <si>
+    <t>Chen Bao-Yuan, 哈尔滨科技大学</t>
+  </si>
+  <si>
+    <t>Shen Yu-Kun, 哈尔滨科技大学</t>
+  </si>
+  <si>
+    <t>Sun Kun, 哈尔滨科技大学</t>
+  </si>
+  <si>
+    <t>Hao Ruiyang, 清华大学</t>
+  </si>
+  <si>
+    <t>Lu Bingyu, 清华大学</t>
+  </si>
+  <si>
+    <t>Cheng Ying, 北京航空航天大学</t>
+  </si>
+  <si>
+    <t>Li Xiu, 清华大学</t>
+  </si>
+  <si>
+    <t>Huang Biqing, 清华大学</t>
+  </si>
+  <si>
+    <t>Wang Xu, 南京航空航天大学</t>
+  </si>
+  <si>
+    <t>Chen Xiaoming, 南京航空航天大学</t>
+  </si>
+  <si>
+    <t>Wang Yanping, 南京航空航天大学</t>
+  </si>
+  <si>
+    <t>Aliukov Sergei, 南乌拉尔国立大学</t>
+  </si>
+  <si>
+    <t>Glushkov Alexander, 南乌拉尔国立大学</t>
+  </si>
+  <si>
+    <t>Cygert Sebastian, 华氏大学</t>
+  </si>
+  <si>
+    <t>Czyzewski Andrzej, 华氏大学</t>
+  </si>
+  <si>
+    <t>Dai Xuerui, 北京交通大学</t>
+  </si>
+  <si>
+    <t>Yuan Xue, 北京交通大学</t>
+  </si>
+  <si>
+    <t>Pei Liu, 北京交通大学</t>
+  </si>
+  <si>
+    <t>Wei Xueye, 北京交通大学</t>
+  </si>
+  <si>
+    <t>Min Yan, 北京理工大学</t>
+  </si>
+  <si>
+    <t>Junzheng Wang, 北京理工大学</t>
+  </si>
+  <si>
+    <t>Jing Li, 北京理工大学</t>
+  </si>
+  <si>
+    <t>Ke Zhang, 北京理工大学</t>
+  </si>
+  <si>
+    <t>Zimu Yang, 北京理工大学</t>
+  </si>
+  <si>
+    <t>Nikolskaya Kseniya, 南乌拉尔国立大学</t>
+  </si>
+  <si>
+    <t>Choi Jiwoong, 首尔国立大学</t>
+  </si>
+  <si>
+    <t>Chun Dayoung, 首尔国立大学</t>
+  </si>
+  <si>
+    <t>Lee Hyuk-Jae, 首尔国立大学</t>
+  </si>
+  <si>
+    <t>Kim Hyun, 首尔国立科技大学</t>
+  </si>
+  <si>
+    <t>Withanawasam Jayani, 东京大学</t>
+  </si>
+  <si>
+    <t>Javanmardi Ehsan, 东京大学</t>
+  </si>
+  <si>
+    <t>Kamijo Shunsuke, 东京大学</t>
+  </si>
+  <si>
+    <t>Farag Wael, 中东美国大学</t>
+  </si>
+  <si>
+    <t>Seo Geonseok, 首尔国立大学</t>
+  </si>
+  <si>
+    <t>Yoo Jaeyoung, 首尔国立大学</t>
+  </si>
+  <si>
+    <t>Choi Jaeseok, 首尔国立大学</t>
+  </si>
+  <si>
+    <t>Kwak Nojun, 首尔国立大学</t>
+  </si>
+  <si>
+    <t>Chen Renxi, 河海大学</t>
+  </si>
+  <si>
+    <t>Li Xinhui, 南京信息工程大学</t>
+  </si>
+  <si>
+    <t>Li Shengyang, 中国科学院</t>
+  </si>
+  <si>
+    <t>Wang Zhiyuan, 上海师范大学</t>
+  </si>
+  <si>
+    <t>Huang Jifeng, 上海师范大学</t>
+  </si>
+  <si>
+    <t>Xiong Neal N., 东北州立大学</t>
+  </si>
+  <si>
+    <t>Zhou Xiaoping, 上海师范大学</t>
+  </si>
+  <si>
+    <t>Lin Xiao, 上海师范大学</t>
+  </si>
+  <si>
+    <t>Ward Theodore Lee, 东北州立大学</t>
+  </si>
+  <si>
+    <t>Li Wei, 西南交通大学</t>
+  </si>
+  <si>
+    <t>Wang Zhenting, 西南交通大学</t>
+  </si>
+  <si>
+    <t>Wu Xiao, 西南交通大学</t>
+  </si>
+  <si>
+    <t>Zhang Ji, 西南交通大学</t>
+  </si>
+  <si>
+    <t>Peng Qiang, 西南交通大学</t>
+  </si>
+  <si>
+    <t>Li Hongliang, 电子科技大学</t>
+  </si>
+  <si>
+    <t>Li Yuru, 北京大学</t>
+  </si>
+  <si>
+    <t>Duan Dongliang, 怀俄明大学</t>
+  </si>
+  <si>
+    <t>Chen Chen, 北京大学</t>
+  </si>
+  <si>
+    <t>Cheng Xiang, 北京大学</t>
+  </si>
+  <si>
+    <t>Yang Liuying, 科罗拉多州立大学</t>
+  </si>
+  <si>
+    <t>Li Hui, 惠州学院</t>
+  </si>
+  <si>
+    <t>Xu Ying, 深圳大学</t>
+  </si>
+  <si>
+    <t>Lu Zefeng, 深圳大学</t>
+  </si>
+  <si>
+    <t>Liu Licai, 深圳大学</t>
+  </si>
+  <si>
+    <t>Cai Daseng, 深圳大学</t>
+  </si>
+  <si>
+    <t>Dai Zhe, 长安大学</t>
+  </si>
+  <si>
+    <t>Cai Lingru, 汕头大学</t>
+  </si>
+  <si>
+    <t>Zhang Zhanchang, 汕头大学</t>
+  </si>
+  <si>
+    <t>Yang Junjie, 汕头大学</t>
+  </si>
+  <si>
+    <t>Yu Yidan, 汕头大学</t>
+  </si>
+  <si>
+    <t>Qin Jing, 香港理工大学</t>
+  </si>
+  <si>
+    <t>Lin Zehui, 深圳大学</t>
+  </si>
+  <si>
+    <t>Li Shengli, 南方医科大学-中国</t>
+  </si>
+  <si>
+    <t>Ni Dong, 深圳大学</t>
+  </si>
+  <si>
+    <t>Liao Yimei, 南方医科大学-中国</t>
+  </si>
+  <si>
+    <t>Wen Huaxuan, 南方医科大学-中国</t>
+  </si>
+  <si>
+    <t>Du Jie, 深圳大学</t>
+  </si>
+  <si>
+    <t>Chen Siping, 深圳大学</t>
+  </si>
+  <si>
+    <t>Hoanh Nguyen, 胡志明市工业大学</t>
+  </si>
+  <si>
+    <t>Feng Jiangfan, 重庆邮电大学</t>
+  </si>
+  <si>
+    <t>Wang Fanjie, 重庆邮电大学</t>
+  </si>
+  <si>
+    <t>Feng Siqin, 重庆邮电大学</t>
+  </si>
+  <si>
+    <t>Peng Yongrong, 中南大学</t>
+  </si>
+  <si>
+    <t>Zhu Xu, 长安大学</t>
+  </si>
+  <si>
+    <t>Wang Jie, 卡尔加里大学</t>
+  </si>
+  <si>
+    <t>Simeonova Sandra, 卡尔加里大学</t>
+  </si>
+  <si>
+    <t>Shahbazi Mozhdeh, 卡尔加里大学</t>
+  </si>
+  <si>
+    <t>Zheng Kun, 北京工业大学</t>
+  </si>
+  <si>
+    <t>Wei Mengfei, 北京工业大学</t>
+  </si>
+  <si>
+    <t>Sun Guangmin, 北京工业大学</t>
+  </si>
+  <si>
+    <t>Anas Bilal, 北京工业大学</t>
+  </si>
+  <si>
+    <t>Li Yu, 北京工业大学</t>
+  </si>
+  <si>
+    <t>Fedorov Aleksandr, 南乌拉尔国立大学</t>
+  </si>
+  <si>
+    <t>Nikolskaia Kseniia, 南乌拉尔国立大学</t>
+  </si>
+  <si>
+    <t>Ivanov Sergey, 南乌拉尔国立大学</t>
+  </si>
+  <si>
+    <t>Minbaleev Alexey, 俄罗斯科学院</t>
+  </si>
+  <si>
+    <t>Pouliot Darren, 加拿大环境与气候变化部</t>
+  </si>
+  <si>
+    <t>Latifovic Rasim, 加拿大自然资源部</t>
+  </si>
+  <si>
+    <t>Pasher Jon, 加拿大环境与气候变化部</t>
+  </si>
+  <si>
+    <t>Duffe Jason, 加拿大环境与气候变化部</t>
+  </si>
+  <si>
+    <t>Zhang Fukai, 中国矿业大学（北京）</t>
+  </si>
+  <si>
+    <t>Li Ce, 中国矿业大学（北京）</t>
+  </si>
+  <si>
+    <t>Yang Feng, 中国矿业大学（北京）</t>
+  </si>
+  <si>
+    <t>Zhou Changxin, 南京科技大学</t>
+  </si>
+  <si>
+    <t>Liu Yazhou, 南京科技大学</t>
+  </si>
+  <si>
+    <t>Sun Quansen, 南京科技大学</t>
+  </si>
+  <si>
+    <t>Zhang Weiwei, 上海工程技术大学</t>
+  </si>
+  <si>
+    <t>Zheng Yaocheng, 上海工程技术大学</t>
+  </si>
+  <si>
+    <t>Gao Qiaoming, 广西科技大学</t>
+  </si>
+  <si>
+    <t>Mi Zeyang, 上海工程技术大学</t>
+  </si>
+  <si>
+    <t>Chen Zuge, 华北电力大学</t>
+  </si>
+  <si>
+    <t>Wu Kehe, 华北电力大学</t>
+  </si>
+  <si>
+    <t>Li Yuanbo, 华北电力大学</t>
+  </si>
+  <si>
+    <t>Wang Minjian, 华北电力大学</t>
+  </si>
+  <si>
+    <t>Li Wei, 华北电力大学</t>
+  </si>
+  <si>
+    <t>Yu Yushan, 华南理工大学</t>
   </si>
 </sst>
 </file>
@@ -1037,345 +2789,2439 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BC6B89-48C5-431F-A1BB-ED09F0C2EA8C}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="138" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G39" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G42" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G52" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G54" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G62" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G69" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G77" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G86" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G87" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G88" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G95" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F97" t="s">
+        <v>440</v>
+      </c>
+      <c r="G97" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F99" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F100" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F106" t="s">
+        <v>475</v>
+      </c>
+      <c r="G106" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F109" t="s">
+        <v>490</v>
+      </c>
+      <c r="G109" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F123" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F124" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F129" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F130" t="s">
+        <v>565</v>
+      </c>
+      <c r="G130" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E143" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
